--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1980530.625195986</v>
+        <v>1976355.038889536</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8067214.685728369</v>
+        <v>8067214.685728377</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4947051.174327206</v>
+        <v>4947051.174327209</v>
       </c>
     </row>
     <row r="9">
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.456524038687347e-12</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.092747308779506e-12</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>388.7438680250976</v>
       </c>
       <c r="G11" t="n">
         <v>411.7636226125942</v>
       </c>
       <c r="H11" t="n">
-        <v>303.2298416201212</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>74.03416229020195</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12.06602373350101</v>
+        <v>128.372488744597</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>207.603374078259</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0625237156332</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1458,13 +1458,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>18.32193184857934</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4499237509691</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>93.9473183866902</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>24.20054387731011</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.6499615928561</v>
       </c>
       <c r="T12" t="n">
         <v>192.532218406006</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>178.4790976781414</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4034542515608</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1126311024745</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>107.7092653489102</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>105.912489752469</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>196.3503650376696</v>
       </c>
       <c r="T13" t="n">
-        <v>221.1625276078995</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2324370779328</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>165.6405199849101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>73.36293446605929</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>411.7636226125942</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>303.2298416201212</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>74.03416229020195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>128.372488744597</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.603374078259</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0625237156332</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>298.0347358283432</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,10 +1692,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>86.91951432172419</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>48.3446115035699</v>
       </c>
       <c r="G15" t="n">
         <v>135.4499237509691</v>
@@ -1737,7 +1737,7 @@
         <v>136.510503994878</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>192.532218406006</v>
       </c>
       <c r="U15" t="n">
         <v>225.8168035670116</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1126311024745</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>189.5519008277122</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.37445297019658</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>96.54494735471521</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>207.603374078259</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0625237156332</v>
       </c>
       <c r="V17" t="n">
-        <v>291.6420238811946</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>35.96525970370759</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4034542515608</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>13.35460207623916</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.1625276078995</v>
       </c>
       <c r="U19" t="n">
         <v>286.2324370779328</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>319.3762786229611</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.7636226125942</v>
       </c>
       <c r="H20" t="n">
         <v>303.2298416201212</v>
@@ -2132,22 +2132,22 @@
         <v>128.372488744597</v>
       </c>
       <c r="T20" t="n">
-        <v>207.603374078259</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>122.8091154503556</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>136.5105039948782</v>
+        <v>136.510503994878</v>
       </c>
       <c r="T21" t="n">
         <v>192.532218406006</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8168035670112</v>
+        <v>225.8168035670116</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1126311024745</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>107.7092653489102</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>105.912489752469</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>196.3503650376696</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.1625276078995</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.0920965743995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>142.7756322451026</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>128.372488744597</v>
+        <v>128.3724887445977</v>
       </c>
       <c r="T23" t="n">
         <v>207.603374078259</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0625237156329</v>
+        <v>251.0625237156332</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>137.8177046900839</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>1.388445374044621</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1126311024745</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>105.912489752469</v>
       </c>
       <c r="S25" t="n">
-        <v>196.3503650376696</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.1625276078995</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>303.2298416201212</v>
       </c>
       <c r="I26" t="n">
-        <v>74.03416229020195</v>
+        <v>74.03416229020279</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.218690305005151</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1126311024745</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.124727789351017</v>
       </c>
       <c r="S28" t="n">
         <v>196.3503650376696</v>
@@ -2767,19 +2767,19 @@
         <v>221.1625276078995</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2324370779328</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,10 +2843,10 @@
         <v>128.372488744597</v>
       </c>
       <c r="T29" t="n">
-        <v>207.6033740782595</v>
+        <v>207.603374078259</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0625237156338</v>
+        <v>251.0625237156332</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.1625276078995</v>
+        <v>129.586323781389</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2324370779328</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>277.663550472473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>128.372488744597</v>
+        <v>128.3724887445958</v>
       </c>
       <c r="T32" t="n">
         <v>207.603374078259</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0625237156329</v>
+        <v>251.0625237156338</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4034542515608</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1126311024745</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>105.912489752469</v>
       </c>
       <c r="S34" t="n">
         <v>196.3503650376696</v>
@@ -3241,16 +3241,16 @@
         <v>221.1625276078995</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2324370779328</v>
       </c>
       <c r="V34" t="n">
-        <v>82.36324981886411</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>118.8982980134665</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>376.6413242771468</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.579853433822768</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>207.603374078259</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3360,7 @@
         <v>135.4499237509691</v>
       </c>
       <c r="H36" t="n">
-        <v>93.9473183866902</v>
+        <v>93.94731838669001</v>
       </c>
       <c r="I36" t="n">
         <v>24.20054387731011</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>166.4034542515608</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1126311024745</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>105.912489752469</v>
       </c>
       <c r="S37" t="n">
-        <v>196.3503650376696</v>
+        <v>90.69042767648614</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.1625276078995</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.5675636942416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.7636226125942</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>303.2298416201212</v>
       </c>
       <c r="I38" t="n">
         <v>74.03416229020195</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>128.372488744597</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>192.1353188326615</v>
+        <v>251.0625237156332</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>208.7882910583424</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3636,7 +3636,7 @@
         <v>192.532218406006</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8168035670117</v>
+        <v>225.8168035670116</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02195028512142926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4034542515608</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1126311024745</v>
       </c>
       <c r="I40" t="n">
-        <v>107.7092653489102</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>105.912489752469</v>
+        <v>52.31776238878303</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2324370779328</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>298.0347358283425</v>
+        <v>355.7921017607026</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.7636226125942</v>
       </c>
       <c r="H41" t="n">
-        <v>303.2298416201212</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>74.03416229020195</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0625237156332</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>161.1456976095533</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3837,7 +3837,7 @@
         <v>93.9473183866902</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>24.20054387731011</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>225.8168035670116</v>
       </c>
       <c r="V42" t="n">
-        <v>199.5163316905306</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>85.50028047809853</v>
       </c>
       <c r="D43" t="n">
-        <v>74.56791994031083</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>148.1126311024745</v>
       </c>
       <c r="I43" t="n">
-        <v>107.7092653489102</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>105.912489752469</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.3503650376696</v>
       </c>
       <c r="T43" t="n">
         <v>221.1625276078995</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2324370779328</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>338.2570404150464</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.7636226125942</v>
+        <v>71.43380508296694</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>128.372488744597</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0625237156332</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4107,10 +4107,10 @@
         <v>136.510503994878</v>
       </c>
       <c r="T45" t="n">
-        <v>179.2917813106463</v>
+        <v>192.532218406006</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8168035670116</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,7 +4119,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>133.2489281909731</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>24.06294268223249</v>
+        <v>65.59481731060991</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1126311024745</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>107.7092653489102</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>105.912489752469</v>
       </c>
       <c r="S46" t="n">
-        <v>196.3503650376696</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2324370779328</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.593407584711759e-12</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.593407584711759e-12</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.593407584711759e-12</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.593407584711759e-12</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.29670379235588e-12</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4571,46 +4571,46 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.341948857065291e-12</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>4.592948243953288e-12</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.843947630841285e-12</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.094947017729282e-12</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.134594640461728e-11</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.593407584711759e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4650,46 +4650,46 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4.592948243953288e-12</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6.843947630841285e-12</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9.094947017729282e-12</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.094947017729282e-12</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.094947017729282e-12</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.798243225373402e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>6.798243225373402e-12</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6.798243225373402e-12</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>6.798243225373402e-12</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.501539433017522e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4729,46 +4729,46 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.501998773775995e-12</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.752998160663993e-12</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>9.00399754755199e-12</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6.70729375519611e-12</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.41058996284023e-12</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.11388617048435e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>842.9788810432667</v>
+        <v>929.3566854927378</v>
       </c>
       <c r="C11" t="n">
-        <v>842.9788810432667</v>
+        <v>929.3566854927378</v>
       </c>
       <c r="D11" t="n">
-        <v>842.9788810432667</v>
+        <v>929.3566854927378</v>
       </c>
       <c r="E11" t="n">
-        <v>842.9788810432667</v>
+        <v>929.3566854927378</v>
       </c>
       <c r="F11" t="n">
-        <v>842.9788810432667</v>
+        <v>536.686111730013</v>
       </c>
       <c r="G11" t="n">
-        <v>427.0560299194342</v>
+        <v>120.7632606061804</v>
       </c>
       <c r="H11" t="n">
         <v>120.7632606061804</v>
       </c>
       <c r="I11" t="n">
-        <v>45.9812784948653</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="J11" t="n">
-        <v>164.1200069383723</v>
+        <v>164.1200069383725</v>
       </c>
       <c r="K11" t="n">
-        <v>391.9178548150743</v>
+        <v>391.9178548150745</v>
       </c>
       <c r="L11" t="n">
         <v>711.4229902276661</v>
       </c>
       <c r="M11" t="n">
-        <v>1098.603452867124</v>
+        <v>1098.603452867125</v>
       </c>
       <c r="N11" t="n">
-        <v>1496.662708555633</v>
+        <v>1496.662708555634</v>
       </c>
       <c r="O11" t="n">
         <v>1859.203514823279</v>
@@ -5060,31 +5060,31 @@
         <v>2134.122704435767</v>
       </c>
       <c r="Q11" t="n">
-        <v>2292.402819947495</v>
+        <v>2292.402819947496</v>
       </c>
       <c r="R11" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="S11" t="n">
-        <v>2286.876021982153</v>
+        <v>2169.394744193169</v>
       </c>
       <c r="T11" t="n">
-        <v>2286.876021982153</v>
+        <v>1959.694366336341</v>
       </c>
       <c r="U11" t="n">
-        <v>2286.876021982153</v>
+        <v>1706.095857532671</v>
       </c>
       <c r="V11" t="n">
-        <v>1955.813134638582</v>
+        <v>1706.095857532671</v>
       </c>
       <c r="W11" t="n">
-        <v>1603.044479368468</v>
+        <v>1706.095857532671</v>
       </c>
       <c r="X11" t="n">
-        <v>1229.578721107388</v>
+        <v>1706.095857532671</v>
       </c>
       <c r="Y11" t="n">
-        <v>1229.578721107388</v>
+        <v>1315.95652555686</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>803.2725541230513</v>
+        <v>699.5857242312788</v>
       </c>
       <c r="C12" t="n">
-        <v>628.8195248419244</v>
+        <v>525.1326949501519</v>
       </c>
       <c r="D12" t="n">
-        <v>479.8851151806731</v>
+        <v>376.1982852889006</v>
       </c>
       <c r="E12" t="n">
-        <v>320.6476601752176</v>
+        <v>216.9608302834451</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1406583079657</v>
+        <v>70.42627231033009</v>
       </c>
       <c r="G12" t="n">
-        <v>165.322553509007</v>
+        <v>70.42627231033009</v>
       </c>
       <c r="H12" t="n">
-        <v>70.42627231033006</v>
+        <v>70.42627231033009</v>
       </c>
       <c r="I12" t="n">
-        <v>45.9812784948653</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="J12" t="n">
-        <v>222.3561738545176</v>
+        <v>97.52604886751286</v>
       </c>
       <c r="K12" t="n">
-        <v>442.2945770305387</v>
+        <v>525.5996807319779</v>
       </c>
       <c r="L12" t="n">
-        <v>712.1648570760347</v>
+        <v>795.4699607774738</v>
       </c>
       <c r="M12" t="n">
-        <v>1046.447613102625</v>
+        <v>1310.607513776904</v>
       </c>
       <c r="N12" t="n">
-        <v>1403.986483907602</v>
+        <v>1668.146384581882</v>
       </c>
       <c r="O12" t="n">
-        <v>1973.00480528156</v>
+        <v>1973.004805281562</v>
       </c>
       <c r="P12" t="n">
-        <v>2198.347498442907</v>
+        <v>2198.347498442908</v>
       </c>
       <c r="Q12" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="R12" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="S12" t="n">
-        <v>2299.063924743265</v>
+        <v>2195.377094851493</v>
       </c>
       <c r="T12" t="n">
-        <v>2104.58693645437</v>
+        <v>2000.900106562598</v>
       </c>
       <c r="U12" t="n">
-        <v>1876.48915507355</v>
+        <v>1772.802325181778</v>
       </c>
       <c r="V12" t="n">
-        <v>1641.337046841808</v>
+        <v>1537.650216950035</v>
       </c>
       <c r="W12" t="n">
-        <v>1387.099690113606</v>
+        <v>1283.412860221834</v>
       </c>
       <c r="X12" t="n">
-        <v>1179.248189908073</v>
+        <v>1075.561360016301</v>
       </c>
       <c r="Y12" t="n">
-        <v>971.4878911431194</v>
+        <v>867.8010612513469</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>749.3069149990043</v>
+        <v>533.1183980589068</v>
       </c>
       <c r="C13" t="n">
-        <v>749.3069149990043</v>
+        <v>364.1822151309999</v>
       </c>
       <c r="D13" t="n">
-        <v>599.1902755866686</v>
+        <v>214.0655757186642</v>
       </c>
       <c r="E13" t="n">
-        <v>451.2771820042755</v>
+        <v>214.0655757186642</v>
       </c>
       <c r="F13" t="n">
-        <v>304.3872345063651</v>
+        <v>214.0655757186642</v>
       </c>
       <c r="G13" t="n">
-        <v>304.3872345063651</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="H13" t="n">
-        <v>154.7785162210373</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="I13" t="n">
-        <v>45.9812784948653</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="J13" t="n">
-        <v>64.67133498646459</v>
+        <v>64.67133498646463</v>
       </c>
       <c r="K13" t="n">
-        <v>225.221675874238</v>
+        <v>225.2216758742381</v>
       </c>
       <c r="L13" t="n">
-        <v>486.1972712658267</v>
+        <v>486.1972712658268</v>
       </c>
       <c r="M13" t="n">
-        <v>771.7485682222145</v>
+        <v>771.7485682222148</v>
       </c>
       <c r="N13" t="n">
         <v>1055.944709997364</v>
@@ -5224,25 +5224,25 @@
         <v>1429.140737898744</v>
       </c>
       <c r="S13" t="n">
-        <v>1429.140737898744</v>
+        <v>1230.807035840492</v>
       </c>
       <c r="T13" t="n">
-        <v>1205.744245365512</v>
+        <v>1230.807035840492</v>
       </c>
       <c r="U13" t="n">
-        <v>916.6205715494186</v>
+        <v>1230.807035840492</v>
       </c>
       <c r="V13" t="n">
-        <v>916.6205715494186</v>
+        <v>1230.807035840492</v>
       </c>
       <c r="W13" t="n">
-        <v>749.3069149990043</v>
+        <v>941.3898658035316</v>
       </c>
       <c r="X13" t="n">
-        <v>749.3069149990043</v>
+        <v>713.4003149055143</v>
       </c>
       <c r="Y13" t="n">
-        <v>749.3069149990043</v>
+        <v>713.4003149055143</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1315.956525556858</v>
+        <v>1998.018737037869</v>
       </c>
       <c r="C14" t="n">
-        <v>946.9940086164461</v>
+        <v>1998.018737037869</v>
       </c>
       <c r="D14" t="n">
-        <v>872.8900344083054</v>
+        <v>1639.753038431119</v>
       </c>
       <c r="E14" t="n">
-        <v>872.8900344083054</v>
+        <v>1253.964785832874</v>
       </c>
       <c r="F14" t="n">
-        <v>461.9041296186979</v>
+        <v>842.9788810432668</v>
       </c>
       <c r="G14" t="n">
-        <v>45.9812784948653</v>
+        <v>427.0560299194343</v>
       </c>
       <c r="H14" t="n">
-        <v>45.9812784948653</v>
+        <v>120.7632606061804</v>
       </c>
       <c r="I14" t="n">
-        <v>45.9812784948653</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="J14" t="n">
-        <v>164.1200069383723</v>
+        <v>164.1200069383724</v>
       </c>
       <c r="K14" t="n">
-        <v>391.9178548150743</v>
+        <v>391.9178548150745</v>
       </c>
       <c r="L14" t="n">
-        <v>711.4229902276661</v>
+        <v>711.4229902276663</v>
       </c>
       <c r="M14" t="n">
-        <v>1098.603452867124</v>
+        <v>1098.603452867125</v>
       </c>
       <c r="N14" t="n">
-        <v>1496.662708555633</v>
+        <v>1496.662708555634</v>
       </c>
       <c r="O14" t="n">
         <v>1859.203514823279</v>
       </c>
       <c r="P14" t="n">
-        <v>2134.122704435766</v>
+        <v>2134.122704435767</v>
       </c>
       <c r="Q14" t="n">
-        <v>2292.402819947495</v>
+        <v>2292.402819947496</v>
       </c>
       <c r="R14" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="S14" t="n">
-        <v>2169.394744193167</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="T14" t="n">
-        <v>1959.694366336339</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="U14" t="n">
-        <v>1706.095857532669</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="V14" t="n">
-        <v>1706.095857532669</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="W14" t="n">
-        <v>1706.095857532669</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="X14" t="n">
-        <v>1706.095857532669</v>
+        <v>1998.018737037869</v>
       </c>
       <c r="Y14" t="n">
-        <v>1315.956525556858</v>
+        <v>1998.018737037869</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.8601444373219</v>
+        <v>833.5984931684964</v>
       </c>
       <c r="C15" t="n">
-        <v>685.4071151561949</v>
+        <v>659.1454638873694</v>
       </c>
       <c r="D15" t="n">
-        <v>536.4727054949436</v>
+        <v>510.2110542261181</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6752162810808</v>
+        <v>350.9735992206626</v>
       </c>
       <c r="F15" t="n">
         <v>302.1406583079657</v>
       </c>
       <c r="G15" t="n">
-        <v>165.322553509007</v>
+        <v>165.3225535090071</v>
       </c>
       <c r="H15" t="n">
-        <v>70.42627231033006</v>
+        <v>70.42627231033009</v>
       </c>
       <c r="I15" t="n">
-        <v>45.9812784948653</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="J15" t="n">
-        <v>97.5260488675128</v>
+        <v>97.52604886751286</v>
       </c>
       <c r="K15" t="n">
-        <v>525.5996807319777</v>
+        <v>263.779096089525</v>
       </c>
       <c r="L15" t="n">
-        <v>795.4699607774737</v>
+        <v>533.6493761350209</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.752716804064</v>
+        <v>867.9321321616117</v>
       </c>
       <c r="N15" t="n">
-        <v>1487.291587609041</v>
+        <v>1436.95045353557</v>
       </c>
       <c r="O15" t="n">
-        <v>1792.150008308722</v>
+        <v>1973.004805281562</v>
       </c>
       <c r="P15" t="n">
-        <v>2198.347498442907</v>
+        <v>2198.347498442908</v>
       </c>
       <c r="Q15" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="R15" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="S15" t="n">
-        <v>2161.174526768641</v>
+        <v>2161.174526768642</v>
       </c>
       <c r="T15" t="n">
-        <v>2161.174526768641</v>
+        <v>1966.697538479747</v>
       </c>
       <c r="U15" t="n">
-        <v>1933.076745387821</v>
+        <v>1738.599757098927</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.924637156078</v>
+        <v>1503.447648867185</v>
       </c>
       <c r="W15" t="n">
-        <v>1443.687280427877</v>
+        <v>1249.210292138983</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.835780222344</v>
+        <v>1041.35879193345</v>
       </c>
       <c r="Y15" t="n">
-        <v>1028.07548145739</v>
+        <v>833.5984931684964</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.9240483330183</v>
+        <v>640.5096772728324</v>
       </c>
       <c r="C16" t="n">
-        <v>342.9878654051114</v>
+        <v>640.5096772728324</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8712259927757</v>
+        <v>490.3930378604966</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8712259927757</v>
+        <v>342.4799442781035</v>
       </c>
       <c r="F16" t="n">
-        <v>45.9812784948653</v>
+        <v>195.5899967801932</v>
       </c>
       <c r="G16" t="n">
-        <v>45.9812784948653</v>
+        <v>195.5899967801932</v>
       </c>
       <c r="H16" t="n">
-        <v>45.9812784948653</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="I16" t="n">
-        <v>45.9812784948653</v>
+        <v>45.98127849486533</v>
       </c>
       <c r="J16" t="n">
-        <v>64.67133498646459</v>
+        <v>64.67133498646463</v>
       </c>
       <c r="K16" t="n">
-        <v>225.221675874238</v>
+        <v>225.2216758742381</v>
       </c>
       <c r="L16" t="n">
-        <v>486.1972712658267</v>
+        <v>486.1972712658268</v>
       </c>
       <c r="M16" t="n">
-        <v>771.7485682222145</v>
+        <v>771.7485682222148</v>
       </c>
       <c r="N16" t="n">
         <v>1055.944709997364</v>
@@ -5467,19 +5467,19 @@
         <v>1429.140737898744</v>
       </c>
       <c r="U16" t="n">
-        <v>1237.674171406106</v>
+        <v>1429.140737898744</v>
       </c>
       <c r="V16" t="n">
-        <v>982.9896832002187</v>
+        <v>1174.456249692857</v>
       </c>
       <c r="W16" t="n">
-        <v>693.572513163258</v>
+        <v>885.0390796558968</v>
       </c>
       <c r="X16" t="n">
-        <v>693.572513163258</v>
+        <v>657.0495287578794</v>
       </c>
       <c r="Y16" t="n">
-        <v>693.572513163258</v>
+        <v>640.5096772728324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1159.711122080484</v>
+        <v>530.0030553764684</v>
       </c>
       <c r="C17" t="n">
-        <v>790.7486051400722</v>
+        <v>432.4829065333217</v>
       </c>
       <c r="D17" t="n">
         <v>432.4829065333217</v>
@@ -5513,22 +5513,22 @@
         <v>51.4081551087528</v>
       </c>
       <c r="J17" t="n">
-        <v>169.5468835522598</v>
+        <v>169.5468835522599</v>
       </c>
       <c r="K17" t="n">
-        <v>397.3447314289618</v>
+        <v>397.3447314289619</v>
       </c>
       <c r="L17" t="n">
-        <v>716.8498668415536</v>
+        <v>733.7713640906825</v>
       </c>
       <c r="M17" t="n">
-        <v>1104.030329481012</v>
+        <v>1369.947283561498</v>
       </c>
       <c r="N17" t="n">
-        <v>1502.089585169521</v>
+        <v>1768.006539250007</v>
       </c>
       <c r="O17" t="n">
-        <v>1864.630391437167</v>
+        <v>2130.547345517653</v>
       </c>
       <c r="P17" t="n">
         <v>2405.466535130141</v>
@@ -5546,19 +5546,19 @@
         <v>2231.038197030715</v>
       </c>
       <c r="U17" t="n">
-        <v>2231.038197030715</v>
+        <v>1977.439688227045</v>
       </c>
       <c r="V17" t="n">
-        <v>1936.450294120417</v>
+        <v>1646.376800883474</v>
       </c>
       <c r="W17" t="n">
-        <v>1936.450294120417</v>
+        <v>1293.60814561336</v>
       </c>
       <c r="X17" t="n">
-        <v>1936.450294120417</v>
+        <v>920.1423873522801</v>
       </c>
       <c r="Y17" t="n">
-        <v>1546.310962144606</v>
+        <v>530.0030553764684</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>936.7269868428019</v>
+        <v>936.726986842802</v>
       </c>
       <c r="C18" t="n">
-        <v>762.2739575616749</v>
+        <v>762.273957561675</v>
       </c>
       <c r="D18" t="n">
         <v>613.3395479004237</v>
       </c>
       <c r="E18" t="n">
-        <v>454.1020928949682</v>
+        <v>454.1020928949681</v>
       </c>
       <c r="F18" t="n">
         <v>307.5675349218532</v>
       </c>
       <c r="G18" t="n">
-        <v>170.7494301228945</v>
+        <v>170.7494301228944</v>
       </c>
       <c r="H18" t="n">
-        <v>75.85314892421756</v>
+        <v>75.85314892421755</v>
       </c>
       <c r="I18" t="n">
         <v>51.4081551087528</v>
@@ -5595,25 +5595,25 @@
         <v>102.9529254814003</v>
       </c>
       <c r="K18" t="n">
-        <v>437.306701116464</v>
+        <v>269.2059727034125</v>
       </c>
       <c r="L18" t="n">
-        <v>707.1769811619599</v>
+        <v>905.3818921742284</v>
       </c>
       <c r="M18" t="n">
-        <v>1041.459737188551</v>
+        <v>1239.664648200819</v>
       </c>
       <c r="N18" t="n">
-        <v>1398.998607993528</v>
+        <v>1875.840567671635</v>
       </c>
       <c r="O18" t="n">
-        <v>1703.857028693208</v>
+        <v>2244.348635975935</v>
       </c>
       <c r="P18" t="n">
-        <v>2244.477862808092</v>
+        <v>2469.691329137282</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.170803966941</v>
+        <v>2570.40775543764</v>
       </c>
       <c r="R18" t="n">
         <v>2570.40775543764</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.2269534993117</v>
+        <v>794.7476848543515</v>
       </c>
       <c r="C19" t="n">
-        <v>514.2269534993117</v>
+        <v>625.8115019264446</v>
       </c>
       <c r="D19" t="n">
-        <v>514.2269534993117</v>
+        <v>625.8115019264446</v>
       </c>
       <c r="E19" t="n">
-        <v>514.2269534993117</v>
+        <v>477.8984083440515</v>
       </c>
       <c r="F19" t="n">
         <v>477.8984083440515</v>
@@ -5671,13 +5671,13 @@
         <v>51.4081551087528</v>
       </c>
       <c r="J19" t="n">
-        <v>70.09821160035209</v>
+        <v>70.0982116003521</v>
       </c>
       <c r="K19" t="n">
         <v>230.6485524881255</v>
       </c>
       <c r="L19" t="n">
-        <v>491.6241478797141</v>
+        <v>491.6241478797142</v>
       </c>
       <c r="M19" t="n">
         <v>777.1754448361021</v>
@@ -5695,28 +5695,28 @@
         <v>1541.549927393914</v>
       </c>
       <c r="R19" t="n">
-        <v>1541.549927393914</v>
+        <v>1528.060430347207</v>
       </c>
       <c r="S19" t="n">
-        <v>1541.549927393914</v>
+        <v>1528.060430347207</v>
       </c>
       <c r="T19" t="n">
-        <v>1541.549927393914</v>
+        <v>1304.663937813976</v>
       </c>
       <c r="U19" t="n">
-        <v>1252.42625357782</v>
+        <v>1015.540263997882</v>
       </c>
       <c r="V19" t="n">
-        <v>1252.42625357782</v>
+        <v>1015.540263997882</v>
       </c>
       <c r="W19" t="n">
-        <v>963.0090835408591</v>
+        <v>1015.540263997882</v>
       </c>
       <c r="X19" t="n">
-        <v>735.0195326428418</v>
+        <v>1015.540263997882</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.2269534993117</v>
+        <v>794.7476848543515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1509.835977711332</v>
+        <v>1259.391662446762</v>
       </c>
       <c r="C20" t="n">
-        <v>1140.873460770921</v>
+        <v>1259.391662446762</v>
       </c>
       <c r="D20" t="n">
-        <v>1140.873460770921</v>
+        <v>1259.391662446762</v>
       </c>
       <c r="E20" t="n">
-        <v>755.0852081726764</v>
+        <v>1259.391662446762</v>
       </c>
       <c r="F20" t="n">
-        <v>432.4829065333217</v>
+        <v>848.4057576571543</v>
       </c>
       <c r="G20" t="n">
         <v>432.4829065333217</v>
@@ -5750,25 +5750,25 @@
         <v>51.4081551087528</v>
       </c>
       <c r="J20" t="n">
-        <v>169.5468835522598</v>
+        <v>169.5468835522599</v>
       </c>
       <c r="K20" t="n">
-        <v>453.0698447561423</v>
+        <v>663.2616855094479</v>
       </c>
       <c r="L20" t="n">
-        <v>772.5749801687342</v>
+        <v>982.7668209220399</v>
       </c>
       <c r="M20" t="n">
-        <v>1159.755442808193</v>
+        <v>1369.947283561498</v>
       </c>
       <c r="N20" t="n">
-        <v>1557.814698496702</v>
+        <v>1768.006539250007</v>
       </c>
       <c r="O20" t="n">
-        <v>1920.355504764347</v>
+        <v>2130.547345517653</v>
       </c>
       <c r="P20" t="n">
-        <v>2195.274694376835</v>
+        <v>2405.466535130141</v>
       </c>
       <c r="Q20" t="n">
         <v>2563.74665064187</v>
@@ -5780,22 +5780,22 @@
         <v>2440.738574887542</v>
       </c>
       <c r="T20" t="n">
-        <v>2231.038197030715</v>
+        <v>2440.738574887542</v>
       </c>
       <c r="U20" t="n">
-        <v>2231.038197030715</v>
+        <v>2316.688963321526</v>
       </c>
       <c r="V20" t="n">
-        <v>1899.975309687144</v>
+        <v>1985.626075977956</v>
       </c>
       <c r="W20" t="n">
-        <v>1899.975309687144</v>
+        <v>1632.857420707842</v>
       </c>
       <c r="X20" t="n">
-        <v>1899.975309687144</v>
+        <v>1259.391662446762</v>
       </c>
       <c r="Y20" t="n">
-        <v>1509.835977711332</v>
+        <v>1259.391662446762</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>307.5675349218534</v>
       </c>
       <c r="G21" t="n">
-        <v>170.7494301228945</v>
+        <v>170.7494301228949</v>
       </c>
       <c r="H21" t="n">
-        <v>75.85314892421756</v>
+        <v>75.85314892421775</v>
       </c>
       <c r="I21" t="n">
         <v>51.4081551087528</v>
@@ -5832,22 +5832,22 @@
         <v>102.9529254814003</v>
       </c>
       <c r="K21" t="n">
-        <v>531.0265573458653</v>
+        <v>269.2059727034125</v>
       </c>
       <c r="L21" t="n">
-        <v>800.8968373913613</v>
+        <v>539.0762527489085</v>
       </c>
       <c r="M21" t="n">
-        <v>1135.179593417952</v>
+        <v>1175.252172219724</v>
       </c>
       <c r="N21" t="n">
-        <v>1492.718464222929</v>
+        <v>1811.42809169054</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.576884922609</v>
+        <v>2244.348635975935</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.197719037493</v>
+        <v>2469.691329137282</v>
       </c>
       <c r="Q21" t="n">
         <v>2570.40775543764</v>
@@ -5856,7 +5856,7 @@
         <v>2570.40775543764</v>
       </c>
       <c r="S21" t="n">
-        <v>2432.518357463015</v>
+        <v>2432.518357463016</v>
       </c>
       <c r="T21" t="n">
         <v>2238.041369174121</v>
@@ -5865,7 +5865,7 @@
         <v>2009.943587793301</v>
       </c>
       <c r="V21" t="n">
-        <v>1774.791479561558</v>
+        <v>1774.791479561559</v>
       </c>
       <c r="W21" t="n">
         <v>1520.554122833357</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1843.730564858353</v>
+        <v>329.1415757628317</v>
       </c>
       <c r="C22" t="n">
-        <v>1674.794381930446</v>
+        <v>160.2053928349248</v>
       </c>
       <c r="D22" t="n">
-        <v>1524.67774251811</v>
+        <v>160.2053928349248</v>
       </c>
       <c r="E22" t="n">
-        <v>1376.764648935717</v>
+        <v>160.2053928349248</v>
       </c>
       <c r="F22" t="n">
-        <v>1229.874701437807</v>
+        <v>160.2053928349248</v>
       </c>
       <c r="G22" t="n">
-        <v>1229.874701437807</v>
+        <v>160.2053928349248</v>
       </c>
       <c r="H22" t="n">
-        <v>1080.265983152479</v>
+        <v>160.2053928349248</v>
       </c>
       <c r="I22" t="n">
-        <v>1080.265983152479</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="J22" t="n">
-        <v>1098.956039644078</v>
+        <v>70.0982116003521</v>
       </c>
       <c r="K22" t="n">
-        <v>1259.506380531852</v>
+        <v>230.6485524881255</v>
       </c>
       <c r="L22" t="n">
-        <v>1520.481975923441</v>
+        <v>491.6241478797142</v>
       </c>
       <c r="M22" t="n">
-        <v>1806.033272879828</v>
+        <v>777.1754448361021</v>
       </c>
       <c r="N22" t="n">
-        <v>2090.229414654978</v>
+        <v>1061.371586611251</v>
       </c>
       <c r="O22" t="n">
-        <v>2336.714254548315</v>
+        <v>1307.856426504589</v>
       </c>
       <c r="P22" t="n">
-        <v>2524.103934420088</v>
+        <v>1495.246106376361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2570.40775543764</v>
+        <v>1541.549927393914</v>
       </c>
       <c r="R22" t="n">
-        <v>2463.425442556358</v>
+        <v>1541.549927393914</v>
       </c>
       <c r="S22" t="n">
-        <v>2463.425442556358</v>
+        <v>1343.216225335661</v>
       </c>
       <c r="T22" t="n">
-        <v>2463.425442556358</v>
+        <v>1119.81973280243</v>
       </c>
       <c r="U22" t="n">
-        <v>2463.425442556358</v>
+        <v>993.4640796969755</v>
       </c>
       <c r="V22" t="n">
-        <v>2208.740954350471</v>
+        <v>738.7795914910887</v>
       </c>
       <c r="W22" t="n">
-        <v>2064.523144001883</v>
+        <v>738.7795914910887</v>
       </c>
       <c r="X22" t="n">
-        <v>2064.523144001883</v>
+        <v>510.7900405930714</v>
       </c>
       <c r="Y22" t="n">
-        <v>1843.730564858353</v>
+        <v>510.7900405930714</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>893.8956538873547</v>
       </c>
       <c r="G23" t="n">
-        <v>477.9728027635221</v>
+        <v>477.9728027635222</v>
       </c>
       <c r="H23" t="n">
         <v>171.6800334502684</v>
@@ -5987,10 +5987,10 @@
         <v>96.89805133895325</v>
       </c>
       <c r="J23" t="n">
-        <v>382.4424288028133</v>
+        <v>382.4424288028134</v>
       </c>
       <c r="K23" t="n">
-        <v>931.1442351249684</v>
+        <v>931.1442351249685</v>
       </c>
       <c r="L23" t="n">
         <v>1664.133972942506</v>
@@ -6005,10 +6005,10 @@
         <v>4066.898530314006</v>
       </c>
       <c r="P23" t="n">
-        <v>4469.769505886857</v>
+        <v>4404.710250212604</v>
       </c>
       <c r="Q23" t="n">
-        <v>4838.241462151892</v>
+        <v>4773.18220647764</v>
       </c>
       <c r="R23" t="n">
         <v>4844.902566947662</v>
@@ -6023,13 +6023,13 @@
         <v>4251.934499737067</v>
       </c>
       <c r="V23" t="n">
-        <v>3920.871612393497</v>
+        <v>3920.871612393496</v>
       </c>
       <c r="W23" t="n">
-        <v>3568.102957123383</v>
+        <v>3568.102957123382</v>
       </c>
       <c r="X23" t="n">
-        <v>3194.637198862303</v>
+        <v>3194.637198862302</v>
       </c>
       <c r="Y23" t="n">
         <v>2804.497866886491</v>
@@ -6066,19 +6066,19 @@
         <v>96.89805133895325</v>
       </c>
       <c r="J24" t="n">
-        <v>148.4428217116007</v>
+        <v>148.4428217116008</v>
       </c>
       <c r="K24" t="n">
-        <v>314.6958689336128</v>
+        <v>314.6958689336129</v>
       </c>
       <c r="L24" t="n">
-        <v>951.6980908295333</v>
+        <v>903.234788590926</v>
       </c>
       <c r="M24" t="n">
-        <v>1627.441240701479</v>
+        <v>1237.517544617517</v>
       </c>
       <c r="N24" t="n">
-        <v>1984.980111506456</v>
+        <v>1595.056415422494</v>
       </c>
       <c r="O24" t="n">
         <v>2289.838532206136</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.8223332814667</v>
+        <v>530.9108951365132</v>
       </c>
       <c r="C25" t="n">
-        <v>395.8223332814667</v>
+        <v>391.7010924192567</v>
       </c>
       <c r="D25" t="n">
-        <v>395.8223332814667</v>
+        <v>391.7010924192567</v>
       </c>
       <c r="E25" t="n">
-        <v>247.9092396990736</v>
+        <v>243.7879988368636</v>
       </c>
       <c r="F25" t="n">
-        <v>247.9092396990736</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="G25" t="n">
-        <v>246.5067696242811</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="H25" t="n">
         <v>96.89805133895325</v>
@@ -6148,7 +6148,7 @@
         <v>115.5881078305525</v>
       </c>
       <c r="K25" t="n">
-        <v>276.1384487183259</v>
+        <v>276.138448718326</v>
       </c>
       <c r="L25" t="n">
         <v>537.1140441099146</v>
@@ -6169,28 +6169,28 @@
         <v>1587.039823624114</v>
       </c>
       <c r="R25" t="n">
-        <v>1587.039823624114</v>
+        <v>1480.057510742832</v>
       </c>
       <c r="S25" t="n">
-        <v>1388.706121565862</v>
+        <v>1480.057510742832</v>
       </c>
       <c r="T25" t="n">
-        <v>1388.706121565862</v>
+        <v>1256.6610182096</v>
       </c>
       <c r="U25" t="n">
-        <v>1388.706121565862</v>
+        <v>1256.6610182096</v>
       </c>
       <c r="V25" t="n">
-        <v>1134.021633359975</v>
+        <v>1001.976530003713</v>
       </c>
       <c r="W25" t="n">
-        <v>844.6044633230142</v>
+        <v>712.5593599667529</v>
       </c>
       <c r="X25" t="n">
-        <v>616.6149124249969</v>
+        <v>712.5593599667529</v>
       </c>
       <c r="Y25" t="n">
-        <v>395.8223332814667</v>
+        <v>712.5593599667529</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>2048.935509881958</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.669811275206</v>
+        <v>1690.669811275207</v>
       </c>
       <c r="E26" t="n">
-        <v>1304.881558676962</v>
+        <v>1304.881558676963</v>
       </c>
       <c r="F26" t="n">
-        <v>893.8956538873547</v>
+        <v>893.8956538873556</v>
       </c>
       <c r="G26" t="n">
-        <v>477.9728027635222</v>
+        <v>477.972802763523</v>
       </c>
       <c r="H26" t="n">
-        <v>171.6800334502684</v>
+        <v>171.6800334502692</v>
       </c>
       <c r="I26" t="n">
         <v>96.89805133895325</v>
       </c>
       <c r="J26" t="n">
-        <v>382.4424288028133</v>
+        <v>215.0367797824603</v>
       </c>
       <c r="K26" t="n">
-        <v>931.1442351249684</v>
+        <v>763.7385861046155</v>
       </c>
       <c r="L26" t="n">
-        <v>1664.133972942506</v>
+        <v>1473.505037813102</v>
       </c>
       <c r="M26" t="n">
-        <v>2496.332833739869</v>
+        <v>2305.703898610464</v>
       </c>
       <c r="N26" t="n">
-        <v>3327.365544596242</v>
+        <v>3136.736609466838</v>
       </c>
       <c r="O26" t="n">
-        <v>4066.898530314006</v>
+        <v>3876.269595184601</v>
       </c>
       <c r="P26" t="n">
-        <v>4660.398441016261</v>
+        <v>4469.769505886857</v>
       </c>
       <c r="Q26" t="n">
         <v>4838.241462151892</v>
@@ -6303,22 +6303,22 @@
         <v>96.89805133895325</v>
       </c>
       <c r="J27" t="n">
-        <v>273.2729466986055</v>
+        <v>148.4428217116008</v>
       </c>
       <c r="K27" t="n">
-        <v>439.5259939206176</v>
+        <v>314.6958689336129</v>
       </c>
       <c r="L27" t="n">
-        <v>709.3962739661135</v>
+        <v>584.5661489791089</v>
       </c>
       <c r="M27" t="n">
-        <v>1043.679029992704</v>
+        <v>1379.8969181182</v>
       </c>
       <c r="N27" t="n">
-        <v>1875.766851397799</v>
+        <v>1737.435788923177</v>
       </c>
       <c r="O27" t="n">
-        <v>2180.625272097479</v>
+        <v>2289.838532206136</v>
       </c>
       <c r="P27" t="n">
         <v>2515.181225367483</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.2459936324915</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="C28" t="n">
-        <v>541.3098107045846</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="D28" t="n">
-        <v>541.3098107045846</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="E28" t="n">
-        <v>393.3967171221914</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="F28" t="n">
-        <v>246.5067696242811</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="G28" t="n">
-        <v>246.5067696242811</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="H28" t="n">
         <v>96.89805133895325</v>
@@ -6385,7 +6385,7 @@
         <v>115.5881078305525</v>
       </c>
       <c r="K28" t="n">
-        <v>276.1384487183259</v>
+        <v>276.138448718326</v>
       </c>
       <c r="L28" t="n">
         <v>537.1140441099146</v>
@@ -6406,28 +6406,28 @@
         <v>1587.039823624114</v>
       </c>
       <c r="R28" t="n">
-        <v>1587.039823624114</v>
+        <v>1579.843128887396</v>
       </c>
       <c r="S28" t="n">
-        <v>1388.706121565862</v>
+        <v>1381.509426829144</v>
       </c>
       <c r="T28" t="n">
-        <v>1165.30962903263</v>
+        <v>1158.112934295912</v>
       </c>
       <c r="U28" t="n">
-        <v>1165.30962903263</v>
+        <v>868.989260479818</v>
       </c>
       <c r="V28" t="n">
-        <v>1165.30962903263</v>
+        <v>614.3047722739311</v>
       </c>
       <c r="W28" t="n">
-        <v>1165.30962903263</v>
+        <v>324.8876022369706</v>
       </c>
       <c r="X28" t="n">
-        <v>937.3200781346127</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="Y28" t="n">
-        <v>716.5274989910826</v>
+        <v>96.89805133895325</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1304.881558676962</v>
       </c>
       <c r="F29" t="n">
-        <v>893.8956538873545</v>
+        <v>893.8956538873549</v>
       </c>
       <c r="G29" t="n">
-        <v>477.9728027635219</v>
+        <v>477.9728027635221</v>
       </c>
       <c r="H29" t="n">
-        <v>171.6800334502682</v>
+        <v>171.6800334502684</v>
       </c>
       <c r="I29" t="n">
-        <v>96.89805133895307</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="J29" t="n">
-        <v>382.4424288028131</v>
+        <v>382.4424288028134</v>
       </c>
       <c r="K29" t="n">
-        <v>931.1442351249682</v>
+        <v>931.1442351249685</v>
       </c>
       <c r="L29" t="n">
         <v>1664.133972942506</v>
       </c>
       <c r="M29" t="n">
-        <v>2496.332833739868</v>
+        <v>2305.703898610464</v>
       </c>
       <c r="N29" t="n">
-        <v>3071.677353792576</v>
+        <v>3136.736609466838</v>
       </c>
       <c r="O29" t="n">
-        <v>3811.21033951034</v>
+        <v>3876.269595184601</v>
       </c>
       <c r="P29" t="n">
-        <v>4404.710250212595</v>
+        <v>4469.769505886857</v>
       </c>
       <c r="Q29" t="n">
-        <v>4773.182206477631</v>
+        <v>4838.241462151892</v>
       </c>
       <c r="R29" t="n">
-        <v>4844.902566947653</v>
+        <v>4844.902566947662</v>
       </c>
       <c r="S29" t="n">
-        <v>4715.233386397555</v>
+        <v>4715.233386397564</v>
       </c>
       <c r="T29" t="n">
-        <v>4505.533008540728</v>
+        <v>4505.533008540737</v>
       </c>
       <c r="U29" t="n">
-        <v>4251.934499737057</v>
+        <v>4251.934499737066</v>
       </c>
       <c r="V29" t="n">
-        <v>3920.871612393486</v>
+        <v>3920.871612393496</v>
       </c>
       <c r="W29" t="n">
-        <v>3568.102957123372</v>
+        <v>3568.102957123381</v>
       </c>
       <c r="X29" t="n">
-        <v>3194.637198862292</v>
+        <v>3194.637198862301</v>
       </c>
       <c r="Y29" t="n">
         <v>2804.49786688649</v>
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>982.2168830730024</v>
+        <v>982.2168830730026</v>
       </c>
       <c r="C30" t="n">
-        <v>807.7638537918754</v>
+        <v>807.7638537918756</v>
       </c>
       <c r="D30" t="n">
-        <v>658.8294441306241</v>
+        <v>658.8294441306243</v>
       </c>
       <c r="E30" t="n">
-        <v>499.5919891251685</v>
+        <v>499.5919891251688</v>
       </c>
       <c r="F30" t="n">
-        <v>353.0574311520535</v>
+        <v>353.0574311520537</v>
       </c>
       <c r="G30" t="n">
-        <v>216.2393263530948</v>
+        <v>216.239326353095</v>
       </c>
       <c r="H30" t="n">
-        <v>121.3430451544178</v>
+        <v>121.343045154418</v>
       </c>
       <c r="I30" t="n">
-        <v>96.89805133895307</v>
+        <v>96.89805133895325</v>
       </c>
       <c r="J30" t="n">
-        <v>148.4428217116006</v>
+        <v>148.4428217116008</v>
       </c>
       <c r="K30" t="n">
-        <v>314.6958689336127</v>
+        <v>314.6958689336129</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5661489791087</v>
+        <v>584.5661489791089</v>
       </c>
       <c r="M30" t="n">
-        <v>918.8489050056994</v>
+        <v>1379.8969181182</v>
       </c>
       <c r="N30" t="n">
-        <v>1750.936726410795</v>
+        <v>1737.435788923177</v>
       </c>
       <c r="O30" t="n">
-        <v>2055.795147110475</v>
+        <v>2081.862017347646</v>
       </c>
       <c r="P30" t="n">
-        <v>2497.944273896783</v>
+        <v>2307.204710508992</v>
       </c>
       <c r="Q30" t="n">
-        <v>2598.660700197142</v>
+        <v>2615.897651667841</v>
       </c>
       <c r="R30" t="n">
         <v>2615.897651667841</v>
@@ -6585,7 +6585,7 @@
         <v>1358.192518858024</v>
       </c>
       <c r="Y30" t="n">
-        <v>1150.43222009307</v>
+        <v>1150.432220093071</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>505.4206467627886</v>
+        <v>3907.969791754305</v>
       </c>
       <c r="C31" t="n">
-        <v>505.4206467627886</v>
+        <v>3907.969791754305</v>
       </c>
       <c r="D31" t="n">
-        <v>355.3040073504528</v>
+        <v>3907.969791754305</v>
       </c>
       <c r="E31" t="n">
-        <v>355.3040073504528</v>
+        <v>3760.056698171912</v>
       </c>
       <c r="F31" t="n">
-        <v>355.3040073504528</v>
+        <v>3613.166750674002</v>
       </c>
       <c r="G31" t="n">
-        <v>355.3040073504528</v>
+        <v>3613.166750674002</v>
       </c>
       <c r="H31" t="n">
-        <v>205.695289065125</v>
+        <v>3463.558032388674</v>
       </c>
       <c r="I31" t="n">
-        <v>96.89805133895307</v>
+        <v>3354.760794662502</v>
       </c>
       <c r="J31" t="n">
-        <v>115.5881078305523</v>
+        <v>3373.450851154101</v>
       </c>
       <c r="K31" t="n">
-        <v>276.1384487183258</v>
+        <v>3534.001192041874</v>
       </c>
       <c r="L31" t="n">
-        <v>537.1140441099144</v>
+        <v>3794.976787433463</v>
       </c>
       <c r="M31" t="n">
-        <v>822.6653410663023</v>
+        <v>4080.528084389851</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.861482841451</v>
+        <v>4364.724226165</v>
       </c>
       <c r="O31" t="n">
-        <v>1353.346322734789</v>
+        <v>4611.209066058337</v>
       </c>
       <c r="P31" t="n">
-        <v>1540.736002606561</v>
+        <v>4798.59874593011</v>
       </c>
       <c r="Q31" t="n">
-        <v>1587.039823624114</v>
+        <v>4844.902566947662</v>
       </c>
       <c r="R31" t="n">
-        <v>1480.057510742832</v>
+        <v>4737.920254066381</v>
       </c>
       <c r="S31" t="n">
-        <v>1480.057510742832</v>
+        <v>4737.920254066381</v>
       </c>
       <c r="T31" t="n">
-        <v>1256.6610182096</v>
+        <v>4607.024977519523</v>
       </c>
       <c r="U31" t="n">
-        <v>967.5373443935061</v>
+        <v>4607.024977519523</v>
       </c>
       <c r="V31" t="n">
-        <v>967.5373443935061</v>
+        <v>4607.024977519523</v>
       </c>
       <c r="W31" t="n">
-        <v>687.0691115930283</v>
+        <v>4317.607807482563</v>
       </c>
       <c r="X31" t="n">
-        <v>687.0691115930283</v>
+        <v>4089.618256584545</v>
       </c>
       <c r="Y31" t="n">
-        <v>687.0691115930283</v>
+        <v>4089.618256584545</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2417.898026822368</v>
+        <v>2417.898026822369</v>
       </c>
       <c r="C32" t="n">
-        <v>2048.935509881956</v>
+        <v>2048.935509881957</v>
       </c>
       <c r="D32" t="n">
         <v>1690.669811275206</v>
@@ -6686,10 +6686,10 @@
         <v>1304.881558676962</v>
       </c>
       <c r="F32" t="n">
-        <v>893.8956538873545</v>
+        <v>893.8956538873547</v>
       </c>
       <c r="G32" t="n">
-        <v>477.9728027635219</v>
+        <v>477.9728027635222</v>
       </c>
       <c r="H32" t="n">
         <v>171.6800334502684</v>
@@ -6698,10 +6698,10 @@
         <v>96.89805133895325</v>
       </c>
       <c r="J32" t="n">
-        <v>382.4424288028133</v>
+        <v>382.4424288028134</v>
       </c>
       <c r="K32" t="n">
-        <v>931.1442351249684</v>
+        <v>931.1442351249685</v>
       </c>
       <c r="L32" t="n">
         <v>1664.133972942506</v>
@@ -6710,40 +6710,40 @@
         <v>2496.332833739869</v>
       </c>
       <c r="N32" t="n">
-        <v>3327.365544596242</v>
+        <v>3071.677353792586</v>
       </c>
       <c r="O32" t="n">
-        <v>4066.898530314006</v>
+        <v>3811.210339510349</v>
       </c>
       <c r="P32" t="n">
-        <v>4660.398441016261</v>
+        <v>4404.710250212604</v>
       </c>
       <c r="Q32" t="n">
-        <v>4838.241462151892</v>
+        <v>4773.18220647764</v>
       </c>
       <c r="R32" t="n">
         <v>4844.902566947662</v>
       </c>
       <c r="S32" t="n">
-        <v>4715.233386397563</v>
+        <v>4715.233386397565</v>
       </c>
       <c r="T32" t="n">
-        <v>4505.533008540736</v>
+        <v>4505.533008540739</v>
       </c>
       <c r="U32" t="n">
-        <v>4251.934499737066</v>
+        <v>4251.934499737068</v>
       </c>
       <c r="V32" t="n">
-        <v>3920.871612393496</v>
+        <v>3920.871612393497</v>
       </c>
       <c r="W32" t="n">
-        <v>3568.102957123381</v>
+        <v>3568.102957123383</v>
       </c>
       <c r="X32" t="n">
-        <v>3194.637198862301</v>
+        <v>3194.637198862302</v>
       </c>
       <c r="Y32" t="n">
-        <v>2804.49786688649</v>
+        <v>2804.497866886491</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>96.89805133895325</v>
       </c>
       <c r="J33" t="n">
-        <v>148.4428217116007</v>
+        <v>148.4428217116008</v>
       </c>
       <c r="K33" t="n">
-        <v>576.5164535760657</v>
+        <v>314.6958689336129</v>
       </c>
       <c r="L33" t="n">
-        <v>846.3867336215617</v>
+        <v>584.5661489791089</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.669489648152</v>
+        <v>1152.892290101361</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.208360453129</v>
+        <v>1984.980111506456</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.560391252598</v>
+        <v>2289.838532206136</v>
       </c>
       <c r="P33" t="n">
         <v>2515.181225367483</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.7077062604156</v>
+        <v>394.4198632066742</v>
       </c>
       <c r="C34" t="n">
-        <v>564.7077062604156</v>
+        <v>394.4198632066742</v>
       </c>
       <c r="D34" t="n">
-        <v>414.5910668480799</v>
+        <v>394.4198632066742</v>
       </c>
       <c r="E34" t="n">
-        <v>414.5910668480799</v>
+        <v>246.5067696242811</v>
       </c>
       <c r="F34" t="n">
-        <v>414.5910668480799</v>
+        <v>246.5067696242811</v>
       </c>
       <c r="G34" t="n">
         <v>246.5067696242811</v>
@@ -6859,7 +6859,7 @@
         <v>115.5881078305525</v>
       </c>
       <c r="K34" t="n">
-        <v>276.1384487183259</v>
+        <v>276.138448718326</v>
       </c>
       <c r="L34" t="n">
         <v>537.1140441099146</v>
@@ -6880,28 +6880,28 @@
         <v>1587.039823624114</v>
       </c>
       <c r="R34" t="n">
-        <v>1587.039823624114</v>
+        <v>1480.057510742832</v>
       </c>
       <c r="S34" t="n">
-        <v>1388.706121565862</v>
+        <v>1281.72380868458</v>
       </c>
       <c r="T34" t="n">
-        <v>1165.30962903263</v>
+        <v>1058.327316151348</v>
       </c>
       <c r="U34" t="n">
-        <v>1165.30962903263</v>
+        <v>769.2036423352545</v>
       </c>
       <c r="V34" t="n">
-        <v>1082.114427195394</v>
+        <v>514.5191541293676</v>
       </c>
       <c r="W34" t="n">
-        <v>792.697257158433</v>
+        <v>514.5191541293676</v>
       </c>
       <c r="X34" t="n">
-        <v>564.7077062604156</v>
+        <v>394.4198632066742</v>
       </c>
       <c r="Y34" t="n">
-        <v>564.7077062604156</v>
+        <v>394.4198632066742</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1239.206605365474</v>
+        <v>1303.410076706048</v>
       </c>
       <c r="C35" t="n">
-        <v>870.2440884250627</v>
+        <v>1303.410076706048</v>
       </c>
       <c r="D35" t="n">
-        <v>511.9783898183122</v>
+        <v>1303.410076706048</v>
       </c>
       <c r="E35" t="n">
-        <v>126.1901372200679</v>
+        <v>917.6218241078036</v>
       </c>
       <c r="F35" t="n">
-        <v>126.1901372200679</v>
+        <v>506.635919318196</v>
       </c>
       <c r="G35" t="n">
         <v>126.1901372200679</v>
@@ -6932,25 +6932,25 @@
         <v>126.1901372200679</v>
       </c>
       <c r="I35" t="n">
-        <v>51.40815510875281</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="J35" t="n">
-        <v>169.5468835522598</v>
+        <v>169.5468835522599</v>
       </c>
       <c r="K35" t="n">
-        <v>397.3447314289618</v>
+        <v>397.3447314289619</v>
       </c>
       <c r="L35" t="n">
-        <v>716.8498668415536</v>
+        <v>733.7713640906825</v>
       </c>
       <c r="M35" t="n">
-        <v>1104.030329481012</v>
+        <v>1369.947283561498</v>
       </c>
       <c r="N35" t="n">
-        <v>1502.089585169521</v>
+        <v>1768.006539250007</v>
       </c>
       <c r="O35" t="n">
-        <v>1864.630391437167</v>
+        <v>2130.547345517653</v>
       </c>
       <c r="P35" t="n">
         <v>2405.466535130141</v>
@@ -6962,25 +6962,25 @@
         <v>2570.40775543764</v>
       </c>
       <c r="S35" t="n">
-        <v>2561.741236817617</v>
+        <v>2570.40775543764</v>
       </c>
       <c r="T35" t="n">
-        <v>2352.04085896079</v>
+        <v>2360.707377580813</v>
       </c>
       <c r="U35" t="n">
-        <v>2352.04085896079</v>
+        <v>2360.707377580813</v>
       </c>
       <c r="V35" t="n">
-        <v>2352.04085896079</v>
+        <v>2029.644490237242</v>
       </c>
       <c r="W35" t="n">
-        <v>1999.272203690676</v>
+        <v>1676.875834967128</v>
       </c>
       <c r="X35" t="n">
-        <v>1625.806445429596</v>
+        <v>1303.410076706048</v>
       </c>
       <c r="Y35" t="n">
-        <v>1625.806445429596</v>
+        <v>1303.410076706048</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>936.726986842802</v>
+        <v>936.7269868428018</v>
       </c>
       <c r="C36" t="n">
-        <v>762.273957561675</v>
+        <v>762.2739575616748</v>
       </c>
       <c r="D36" t="n">
-        <v>613.3395479004237</v>
+        <v>613.3395479004236</v>
       </c>
       <c r="E36" t="n">
-        <v>454.1020928949682</v>
+        <v>454.1020928949681</v>
       </c>
       <c r="F36" t="n">
-        <v>307.5675349218532</v>
+        <v>307.5675349218531</v>
       </c>
       <c r="G36" t="n">
-        <v>170.7494301228945</v>
+        <v>170.7494301228944</v>
       </c>
       <c r="H36" t="n">
         <v>75.85314892421756</v>
       </c>
       <c r="I36" t="n">
-        <v>51.40815510875281</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="J36" t="n">
-        <v>227.7830504684051</v>
+        <v>102.9529254814003</v>
       </c>
       <c r="K36" t="n">
-        <v>655.8566823328699</v>
+        <v>269.2059727034125</v>
       </c>
       <c r="L36" t="n">
-        <v>925.7269623783659</v>
+        <v>905.3818921742284</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.974829612788</v>
+        <v>1239.664648200819</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.513700417765</v>
+        <v>1597.203519005796</v>
       </c>
       <c r="O36" t="n">
-        <v>2036.372121117446</v>
+        <v>2036.372121117445</v>
       </c>
       <c r="P36" t="n">
-        <v>2261.714814278792</v>
+        <v>2261.714814278791</v>
       </c>
       <c r="Q36" t="n">
         <v>2570.40775543764</v>
@@ -7041,7 +7041,7 @@
         <v>2570.40775543764</v>
       </c>
       <c r="S36" t="n">
-        <v>2432.518357463016</v>
+        <v>2432.518357463015</v>
       </c>
       <c r="T36" t="n">
         <v>2238.041369174121</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>835.0439404560325</v>
+        <v>683.231676340762</v>
       </c>
       <c r="C37" t="n">
-        <v>666.1077575281256</v>
+        <v>514.2954934128551</v>
       </c>
       <c r="D37" t="n">
-        <v>515.9911181157898</v>
+        <v>514.2954934128551</v>
       </c>
       <c r="E37" t="n">
-        <v>515.9911181157898</v>
+        <v>366.382399830462</v>
       </c>
       <c r="F37" t="n">
-        <v>369.1011706178795</v>
+        <v>219.4924523325516</v>
       </c>
       <c r="G37" t="n">
-        <v>201.0168733940806</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="H37" t="n">
-        <v>51.40815510875281</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="I37" t="n">
-        <v>51.40815510875281</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="J37" t="n">
-        <v>70.09821160035209</v>
+        <v>70.0982116003521</v>
       </c>
       <c r="K37" t="n">
         <v>230.6485524881255</v>
       </c>
       <c r="L37" t="n">
-        <v>491.6241478797141</v>
+        <v>491.6241478797142</v>
       </c>
       <c r="M37" t="n">
         <v>777.1754448361021</v>
@@ -7117,28 +7117,28 @@
         <v>1541.549927393914</v>
       </c>
       <c r="R37" t="n">
-        <v>1541.549927393914</v>
+        <v>1434.567614512632</v>
       </c>
       <c r="S37" t="n">
-        <v>1343.216225335661</v>
+        <v>1342.96112191012</v>
       </c>
       <c r="T37" t="n">
-        <v>1343.216225335661</v>
+        <v>1119.564629376889</v>
       </c>
       <c r="U37" t="n">
-        <v>1343.216225335661</v>
+        <v>1119.564629376889</v>
       </c>
       <c r="V37" t="n">
-        <v>1343.216225335661</v>
+        <v>864.8801411710017</v>
       </c>
       <c r="W37" t="n">
-        <v>1053.799055298701</v>
+        <v>864.8801411710017</v>
       </c>
       <c r="X37" t="n">
-        <v>1053.799055298701</v>
+        <v>864.8801411710017</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.0439404560325</v>
+        <v>864.8801411710017</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1655.129456489307</v>
+        <v>1645.179915045006</v>
       </c>
       <c r="C38" t="n">
-        <v>1286.166939548895</v>
+        <v>1645.179915045006</v>
       </c>
       <c r="D38" t="n">
-        <v>927.9012409421448</v>
+        <v>1645.179915045006</v>
       </c>
       <c r="E38" t="n">
-        <v>542.1129883439005</v>
+        <v>1259.391662446762</v>
       </c>
       <c r="F38" t="n">
-        <v>542.1129883439005</v>
+        <v>848.4057576571543</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1901372200679</v>
+        <v>432.4829065333217</v>
       </c>
       <c r="H38" t="n">
         <v>126.1901372200679</v>
       </c>
       <c r="I38" t="n">
-        <v>51.40815510875281</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="J38" t="n">
-        <v>169.5468835522598</v>
+        <v>336.9525325726129</v>
       </c>
       <c r="K38" t="n">
-        <v>397.3447314289618</v>
+        <v>564.750380449315</v>
       </c>
       <c r="L38" t="n">
-        <v>716.8498668415536</v>
+        <v>884.2555158619068</v>
       </c>
       <c r="M38" t="n">
-        <v>1159.755442808193</v>
+        <v>1271.435978501365</v>
       </c>
       <c r="N38" t="n">
-        <v>1557.814698496702</v>
+        <v>1768.006539250007</v>
       </c>
       <c r="O38" t="n">
-        <v>1920.355504764348</v>
+        <v>2130.547345517653</v>
       </c>
       <c r="P38" t="n">
-        <v>2195.274694376835</v>
+        <v>2405.466535130141</v>
       </c>
       <c r="Q38" t="n">
         <v>2563.74665064187</v>
@@ -7199,25 +7199,25 @@
         <v>2570.40775543764</v>
       </c>
       <c r="S38" t="n">
-        <v>2570.40775543764</v>
+        <v>2440.738574887542</v>
       </c>
       <c r="T38" t="n">
-        <v>2570.40775543764</v>
+        <v>2440.738574887542</v>
       </c>
       <c r="U38" t="n">
-        <v>2376.331675808689</v>
+        <v>2187.140066083872</v>
       </c>
       <c r="V38" t="n">
-        <v>2045.268788465119</v>
+        <v>1856.077178740301</v>
       </c>
       <c r="W38" t="n">
-        <v>2045.268788465119</v>
+        <v>1856.077178740301</v>
       </c>
       <c r="X38" t="n">
-        <v>2045.268788465119</v>
+        <v>1645.179915045006</v>
       </c>
       <c r="Y38" t="n">
-        <v>1655.129456489307</v>
+        <v>1645.179915045006</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>936.7269868428019</v>
+        <v>936.726986842802</v>
       </c>
       <c r="C39" t="n">
-        <v>762.2739575616749</v>
+        <v>762.273957561675</v>
       </c>
       <c r="D39" t="n">
-        <v>613.3395479004237</v>
+        <v>613.3395479004239</v>
       </c>
       <c r="E39" t="n">
-        <v>454.1020928949681</v>
+        <v>454.1020928949683</v>
       </c>
       <c r="F39" t="n">
-        <v>307.5675349218532</v>
+        <v>307.5675349218534</v>
       </c>
       <c r="G39" t="n">
-        <v>170.7494301228945</v>
+        <v>170.7494301228949</v>
       </c>
       <c r="H39" t="n">
-        <v>75.85314892421756</v>
+        <v>75.85314892421755</v>
       </c>
       <c r="I39" t="n">
-        <v>51.40815510875281</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="J39" t="n">
         <v>102.9529254814003</v>
       </c>
       <c r="K39" t="n">
-        <v>531.0265573458653</v>
+        <v>269.2059727034125</v>
       </c>
       <c r="L39" t="n">
-        <v>800.8968373913613</v>
+        <v>905.3818921742284</v>
       </c>
       <c r="M39" t="n">
-        <v>1437.072756862177</v>
+        <v>1250.633845700142</v>
       </c>
       <c r="N39" t="n">
-        <v>1794.611627667155</v>
+        <v>1608.17271650512</v>
       </c>
       <c r="O39" t="n">
-        <v>2244.348635975936</v>
+        <v>2244.348635975935</v>
       </c>
       <c r="P39" t="n">
         <v>2469.691329137282</v>
@@ -7287,7 +7287,7 @@
         <v>2009.943587793301</v>
       </c>
       <c r="V39" t="n">
-        <v>1774.791479561558</v>
+        <v>1774.791479561559</v>
       </c>
       <c r="W39" t="n">
         <v>1520.554122833357</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1656.895047805287</v>
+        <v>495.8199144743841</v>
       </c>
       <c r="C40" t="n">
-        <v>1656.895047805287</v>
+        <v>495.8199144743841</v>
       </c>
       <c r="D40" t="n">
-        <v>1506.778408392951</v>
+        <v>495.8199144743841</v>
       </c>
       <c r="E40" t="n">
-        <v>1506.756236387778</v>
+        <v>347.9068208919909</v>
       </c>
       <c r="F40" t="n">
-        <v>1506.756236387778</v>
+        <v>201.0168733940806</v>
       </c>
       <c r="G40" t="n">
-        <v>1338.671939163979</v>
+        <v>201.0168733940806</v>
       </c>
       <c r="H40" t="n">
-        <v>1189.063220878651</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="I40" t="n">
-        <v>1080.26598315248</v>
+        <v>51.4081551087528</v>
       </c>
       <c r="J40" t="n">
-        <v>1098.956039644079</v>
+        <v>70.0982116003521</v>
       </c>
       <c r="K40" t="n">
-        <v>1259.506380531852</v>
+        <v>230.6485524881255</v>
       </c>
       <c r="L40" t="n">
-        <v>1520.481975923441</v>
+        <v>491.6241478797142</v>
       </c>
       <c r="M40" t="n">
-        <v>1806.033272879829</v>
+        <v>777.1754448361021</v>
       </c>
       <c r="N40" t="n">
-        <v>2090.229414654978</v>
+        <v>1061.371586611251</v>
       </c>
       <c r="O40" t="n">
-        <v>2336.714254548316</v>
+        <v>1307.856426504589</v>
       </c>
       <c r="P40" t="n">
-        <v>2524.103934420088</v>
+        <v>1495.246106376361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2570.40775543764</v>
+        <v>1541.549927393914</v>
       </c>
       <c r="R40" t="n">
-        <v>2463.425442556359</v>
+        <v>1488.703702758779</v>
       </c>
       <c r="S40" t="n">
-        <v>2463.425442556359</v>
+        <v>1488.703702758779</v>
       </c>
       <c r="T40" t="n">
-        <v>2463.425442556359</v>
+        <v>1488.703702758779</v>
       </c>
       <c r="U40" t="n">
-        <v>2174.301768740265</v>
+        <v>1488.703702758779</v>
       </c>
       <c r="V40" t="n">
-        <v>2174.301768740265</v>
+        <v>1234.019214552892</v>
       </c>
       <c r="W40" t="n">
-        <v>1884.884598703304</v>
+        <v>944.6020445159315</v>
       </c>
       <c r="X40" t="n">
-        <v>1656.895047805287</v>
+        <v>716.6124936179142</v>
       </c>
       <c r="Y40" t="n">
-        <v>1656.895047805287</v>
+        <v>495.8199144743841</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2299.063924743265</v>
+        <v>1281.860325702704</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.018737037869</v>
+        <v>922.4743643282573</v>
       </c>
       <c r="D41" t="n">
-        <v>1639.753038431119</v>
+        <v>922.4743643282573</v>
       </c>
       <c r="E41" t="n">
-        <v>1253.964785832874</v>
+        <v>536.686111730013</v>
       </c>
       <c r="F41" t="n">
-        <v>842.9788810432667</v>
+        <v>536.686111730013</v>
       </c>
       <c r="G41" t="n">
-        <v>427.0560299194342</v>
+        <v>120.7632606061804</v>
       </c>
       <c r="H41" t="n">
         <v>120.7632606061804</v>
       </c>
       <c r="I41" t="n">
-        <v>45.98127849486531</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="J41" t="n">
         <v>164.1200069383724</v>
       </c>
       <c r="K41" t="n">
-        <v>391.9178548150743</v>
+        <v>391.9178548150744</v>
       </c>
       <c r="L41" t="n">
-        <v>711.4229902276657</v>
+        <v>711.4229902276663</v>
       </c>
       <c r="M41" t="n">
-        <v>1098.603452867124</v>
+        <v>1098.603452867125</v>
       </c>
       <c r="N41" t="n">
-        <v>1496.662708555633</v>
+        <v>1496.662708555634</v>
       </c>
       <c r="O41" t="n">
         <v>1859.203514823279</v>
       </c>
       <c r="P41" t="n">
-        <v>2134.122704435766</v>
+        <v>2134.122704435767</v>
       </c>
       <c r="Q41" t="n">
         <v>2292.402819947496</v>
       </c>
       <c r="R41" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="S41" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="T41" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="U41" t="n">
-        <v>2299.063924743265</v>
+        <v>2045.465415939596</v>
       </c>
       <c r="V41" t="n">
-        <v>2299.063924743265</v>
+        <v>2045.465415939596</v>
       </c>
       <c r="W41" t="n">
-        <v>2299.063924743265</v>
+        <v>2045.465415939596</v>
       </c>
       <c r="X41" t="n">
-        <v>2299.063924743265</v>
+        <v>1671.999657678516</v>
       </c>
       <c r="Y41" t="n">
-        <v>2299.063924743265</v>
+        <v>1281.860325702704</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>906.8551164134498</v>
+        <v>919.6205128766294</v>
       </c>
       <c r="C42" t="n">
-        <v>732.4020871323228</v>
+        <v>756.8470809477876</v>
       </c>
       <c r="D42" t="n">
-        <v>583.4676774710715</v>
+        <v>607.9126712865364</v>
       </c>
       <c r="E42" t="n">
-        <v>424.2302224656161</v>
+        <v>448.6752162810808</v>
       </c>
       <c r="F42" t="n">
-        <v>277.695664492501</v>
+        <v>302.1406583079657</v>
       </c>
       <c r="G42" t="n">
-        <v>140.8775596935423</v>
+        <v>165.322553509007</v>
       </c>
       <c r="H42" t="n">
-        <v>45.98127849486531</v>
+        <v>70.42627231033008</v>
       </c>
       <c r="I42" t="n">
-        <v>45.98127849486531</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="J42" t="n">
-        <v>97.52604886751281</v>
+        <v>97.52604886751286</v>
       </c>
       <c r="K42" t="n">
-        <v>525.5996807319777</v>
+        <v>263.779096089525</v>
       </c>
       <c r="L42" t="n">
-        <v>795.4699607774737</v>
+        <v>533.6493761350209</v>
       </c>
       <c r="M42" t="n">
-        <v>1129.752716804064</v>
+        <v>867.9321321616117</v>
       </c>
       <c r="N42" t="n">
-        <v>1487.291587609041</v>
+        <v>1225.471002966589</v>
       </c>
       <c r="O42" t="n">
-        <v>1792.150008308722</v>
+        <v>1657.726664328023</v>
       </c>
       <c r="P42" t="n">
-        <v>2198.347498442907</v>
+        <v>2198.347498442908</v>
       </c>
       <c r="Q42" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="R42" t="n">
-        <v>2299.063924743265</v>
+        <v>2299.063924743266</v>
       </c>
       <c r="S42" t="n">
         <v>2161.174526768641</v>
       </c>
       <c r="T42" t="n">
-        <v>1966.697538479746</v>
+        <v>1966.697538479747</v>
       </c>
       <c r="U42" t="n">
-        <v>1738.599757098926</v>
+        <v>1738.599757098927</v>
       </c>
       <c r="V42" t="n">
-        <v>1537.068108926673</v>
+        <v>1503.447648867184</v>
       </c>
       <c r="W42" t="n">
-        <v>1282.830752198472</v>
+        <v>1503.447648867184</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.830752198472</v>
+        <v>1295.596148661651</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.070453433518</v>
+        <v>1087.835849896697</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5344961850216</v>
+        <v>281.9539164550401</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5983132571147</v>
+        <v>195.5899967801931</v>
       </c>
       <c r="D43" t="n">
-        <v>451.2771820042755</v>
+        <v>195.5899967801931</v>
       </c>
       <c r="E43" t="n">
-        <v>451.2771820042755</v>
+        <v>195.5899967801931</v>
       </c>
       <c r="F43" t="n">
-        <v>304.3872345063651</v>
+        <v>195.5899967801931</v>
       </c>
       <c r="G43" t="n">
-        <v>304.3872345063651</v>
+        <v>195.5899967801931</v>
       </c>
       <c r="H43" t="n">
-        <v>154.7785162210373</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="I43" t="n">
-        <v>45.98127849486531</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="J43" t="n">
-        <v>64.67133498646459</v>
+        <v>64.67133498646461</v>
       </c>
       <c r="K43" t="n">
-        <v>225.221675874238</v>
+        <v>225.2216758742381</v>
       </c>
       <c r="L43" t="n">
-        <v>486.1972712658267</v>
+        <v>486.1972712658268</v>
       </c>
       <c r="M43" t="n">
-        <v>771.7485682222145</v>
+        <v>771.7485682222148</v>
       </c>
       <c r="N43" t="n">
         <v>1055.944709997364</v>
@@ -7594,25 +7594,25 @@
         <v>1429.140737898744</v>
       </c>
       <c r="S43" t="n">
-        <v>1429.140737898744</v>
+        <v>1230.807035840492</v>
       </c>
       <c r="T43" t="n">
-        <v>1205.744245365512</v>
+        <v>1007.41054330726</v>
       </c>
       <c r="U43" t="n">
-        <v>1205.744245365512</v>
+        <v>718.2868694911667</v>
       </c>
       <c r="V43" t="n">
-        <v>1205.744245365512</v>
+        <v>463.6023812852799</v>
       </c>
       <c r="W43" t="n">
-        <v>916.3270753285517</v>
+        <v>463.6023812852799</v>
       </c>
       <c r="X43" t="n">
-        <v>916.3270753285517</v>
+        <v>463.6023812852799</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5344961850216</v>
+        <v>463.6023812852799</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1572.829511212072</v>
+        <v>845.3648527116911</v>
       </c>
       <c r="C44" t="n">
-        <v>1231.155733015056</v>
+        <v>476.4023357712794</v>
       </c>
       <c r="D44" t="n">
-        <v>872.8900344083054</v>
+        <v>118.1366371645289</v>
       </c>
       <c r="E44" t="n">
-        <v>872.8900344083054</v>
+        <v>118.1366371645289</v>
       </c>
       <c r="F44" t="n">
-        <v>461.9041296186979</v>
+        <v>118.1366371645289</v>
       </c>
       <c r="G44" t="n">
-        <v>45.98127849486533</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="H44" t="n">
-        <v>45.98127849486533</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="I44" t="n">
-        <v>45.98127849486533</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="J44" t="n">
-        <v>164.1200069383724</v>
+        <v>164.1200069383725</v>
       </c>
       <c r="K44" t="n">
         <v>391.9178548150745</v>
       </c>
       <c r="L44" t="n">
-        <v>711.4229902276663</v>
+        <v>711.4229902276659</v>
       </c>
       <c r="M44" t="n">
-        <v>1098.603452867125</v>
+        <v>1098.603452867124</v>
       </c>
       <c r="N44" t="n">
-        <v>1496.662708555634</v>
+        <v>1496.662708555633</v>
       </c>
       <c r="O44" t="n">
-        <v>1859.20351482328</v>
+        <v>1859.203514823279</v>
       </c>
       <c r="P44" t="n">
         <v>2134.122704435767</v>
@@ -7673,25 +7673,25 @@
         <v>2299.063924743266</v>
       </c>
       <c r="S44" t="n">
-        <v>2299.063924743266</v>
+        <v>2169.394744193168</v>
       </c>
       <c r="T44" t="n">
-        <v>2299.063924743266</v>
+        <v>2169.394744193168</v>
       </c>
       <c r="U44" t="n">
-        <v>2299.063924743266</v>
+        <v>1915.796235389498</v>
       </c>
       <c r="V44" t="n">
-        <v>2299.063924743266</v>
+        <v>1584.733348045927</v>
       </c>
       <c r="W44" t="n">
-        <v>1946.295269473152</v>
+        <v>1231.964692775813</v>
       </c>
       <c r="X44" t="n">
-        <v>1572.829511212072</v>
+        <v>1231.964692775813</v>
       </c>
       <c r="Y44" t="n">
-        <v>1572.829511212072</v>
+        <v>1231.964692775813</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>140.8775596935423</v>
       </c>
       <c r="H45" t="n">
-        <v>45.98127849486533</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="I45" t="n">
-        <v>45.98127849486533</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="J45" t="n">
-        <v>97.52604886751283</v>
+        <v>97.52604886751286</v>
       </c>
       <c r="K45" t="n">
-        <v>263.779096089525</v>
+        <v>391.1763367512792</v>
       </c>
       <c r="L45" t="n">
-        <v>533.6493761350209</v>
+        <v>661.0466167967752</v>
       </c>
       <c r="M45" t="n">
-        <v>867.9321321616117</v>
+        <v>995.3293728233659</v>
       </c>
       <c r="N45" t="n">
-        <v>1436.95045353557</v>
+        <v>1352.868243628343</v>
       </c>
       <c r="O45" t="n">
-        <v>1973.004805281562</v>
+        <v>1657.726664328023</v>
       </c>
       <c r="P45" t="n">
         <v>2198.347498442908</v>
@@ -7752,25 +7752,25 @@
         <v>2299.063924743266</v>
       </c>
       <c r="S45" t="n">
-        <v>2161.174526768642</v>
+        <v>2161.174526768641</v>
       </c>
       <c r="T45" t="n">
-        <v>1980.071717363949</v>
+        <v>1966.697538479747</v>
       </c>
       <c r="U45" t="n">
-        <v>1980.071717363949</v>
+        <v>1738.599757098927</v>
       </c>
       <c r="V45" t="n">
-        <v>1744.919609132206</v>
+        <v>1503.447648867184</v>
       </c>
       <c r="W45" t="n">
-        <v>1490.682252404004</v>
+        <v>1249.210292138983</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.830752198472</v>
+        <v>1114.615415178404</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.070453433518</v>
+        <v>906.8551164134498</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.9488218297615</v>
+        <v>367.9258549417859</v>
       </c>
       <c r="C46" t="n">
-        <v>370.0126389018546</v>
+        <v>367.9258549417859</v>
       </c>
       <c r="D46" t="n">
-        <v>219.8959994895189</v>
+        <v>367.9258549417859</v>
       </c>
       <c r="E46" t="n">
-        <v>219.8959994895189</v>
+        <v>367.9258549417859</v>
       </c>
       <c r="F46" t="n">
-        <v>219.8959994895189</v>
+        <v>221.0359074438756</v>
       </c>
       <c r="G46" t="n">
-        <v>195.5899967801932</v>
+        <v>154.7785162210373</v>
       </c>
       <c r="H46" t="n">
-        <v>45.98127849486533</v>
+        <v>154.7785162210373</v>
       </c>
       <c r="I46" t="n">
-        <v>45.98127849486533</v>
+        <v>45.98127849486532</v>
       </c>
       <c r="J46" t="n">
         <v>64.67133498646461</v>
       </c>
       <c r="K46" t="n">
-        <v>225.221675874238</v>
+        <v>225.2216758742381</v>
       </c>
       <c r="L46" t="n">
-        <v>486.1972712658267</v>
+        <v>486.1972712658268</v>
       </c>
       <c r="M46" t="n">
-        <v>771.7485682222145</v>
+        <v>771.7485682222148</v>
       </c>
       <c r="N46" t="n">
         <v>1055.944709997364</v>
@@ -7831,25 +7831,25 @@
         <v>1429.140737898744</v>
       </c>
       <c r="S46" t="n">
-        <v>1230.807035840492</v>
+        <v>1429.140737898744</v>
       </c>
       <c r="T46" t="n">
-        <v>1230.807035840492</v>
+        <v>1429.140737898744</v>
       </c>
       <c r="U46" t="n">
-        <v>1230.807035840492</v>
+        <v>1140.017064082651</v>
       </c>
       <c r="V46" t="n">
-        <v>1230.807035840492</v>
+        <v>885.3325758767638</v>
       </c>
       <c r="W46" t="n">
-        <v>941.3898658035314</v>
+        <v>595.9154058398033</v>
       </c>
       <c r="X46" t="n">
-        <v>941.3898658035314</v>
+        <v>367.9258549417859</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.5972866600013</v>
+        <v>367.9258549417859</v>
       </c>
     </row>
   </sheetData>
@@ -8219,19 +8219,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699895</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.346233227275</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965932</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.098211421689</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552718</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,16 +8298,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798765</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220207</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833356</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444467</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812406</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476073</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652355</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518451</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-5.63549605858722e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>54.22763227677686</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>182.6816131038786</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>266.8281824992707</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>213.6156066353345</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>233.531243481123</v>
       </c>
       <c r="P15" t="n">
-        <v>182.6816131038775</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>17.09242146376636</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>251.5105624559166</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6029839196834</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>169.798715568739</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.005696389212</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>281.4515643089279</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>64.2925733380003</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56.28799325977832</v>
+        <v>268.6029839196829</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>304.9425893376011</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>281.4515643089279</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>129.3556803896112</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>132.8218283836248</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>129.2442282427915</v>
+        <v>63.52780836980935</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>321.8875147594112</v>
       </c>
       <c r="M24" t="n">
-        <v>344.9094887326816</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>394.2033497938328</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.76051073121343</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>250.0447702861406</v>
       </c>
       <c r="P27" t="n">
-        <v>110.3164243521786</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>256.9590535641411</v>
       </c>
       <c r="N29" t="n">
-        <v>179.076024610302</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>39.96748255029195</v>
       </c>
       <c r="P30" t="n">
-        <v>218.9963976009719</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>179.0760246103108</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>19.76051073121343</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>236.4074596925872</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>132.8218283836252</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>17.09242146376636</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>251.5105624559166</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6029839196839</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.005696389212</v>
       </c>
       <c r="M36" t="n">
-        <v>115.1162739473046</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>135.6668499110795</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>56.28799325977877</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>99.50636874760909</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10902,19 +10902,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.005696389212</v>
       </c>
       <c r="M39" t="n">
-        <v>304.9425893376013</v>
+        <v>11.07999747406376</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>146.3420076859608</v>
+        <v>334.6641401728644</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>128.6840814765196</v>
       </c>
       <c r="P42" t="n">
-        <v>182.681613103878</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>128.6840814765195</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>213.6156066353346</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>233.5312434811231</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>28.11060771970534</v>
+        <v>28.11060771970533</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22793,10 +22793,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741709163</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513278</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>18.13217771661385</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>303.2298416201212</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>116.306465011096</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>207.603374078259</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0625237156332</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23346,13 +23346,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>126.7472805448045</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.4499237509691</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>93.9473183866902</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>136.510503994878</v>
+        <v>33.86054240202191</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>1.352882503795882</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4034542515608</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1126311024745</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>107.7092653489102</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>196.3503650376696</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.1625276078995</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2324370779328</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>120.8824783516809</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,13 +23495,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>281.3201071546237</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>303.2298416201212</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>74.03416229020195</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>128.372488744597</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>207.603374078259</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0625237156332</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>71.6963648501258</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23580,10 +23580,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>70.72556613367675</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>96.72460088981398</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23625,7 +23625,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>192.532218406006</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4034542515608</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1126311024745</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>107.7092653489102</v>
@@ -23707,7 +23707,7 @@
         <v>221.1625276078995</v>
       </c>
       <c r="U16" t="n">
-        <v>96.68053625022068</v>
+        <v>286.2324370779328</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>202.2102003818982</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>268.7279444162924</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0625237156332</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>36.11023458894033</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>109.4557883192236</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>105.912489752469</v>
+        <v>92.55788767622981</v>
       </c>
       <c r="S19" t="n">
         <v>196.3503650376696</v>
       </c>
       <c r="T19" t="n">
-        <v>221.1625276078995</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,19 +23969,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>87.49976711875036</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.7636226125942</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,22 +24020,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>207.603374078259</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0625237156332</v>
+        <v>128.2534082652776</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4034542515608</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1126311024745</v>
       </c>
       <c r="I22" t="n">
-        <v>107.7092653489102</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>105.912489752469</v>
       </c>
       <c r="S22" t="n">
-        <v>196.3503650376696</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.1625276078995</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2324370779328</v>
+        <v>161.1403405035333</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>143.7473660914884</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>29.42911640854393</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.0150088775162</v>
+        <v>166.4034542515608</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1126311024745</v>
       </c>
       <c r="I25" t="n">
         <v>107.7092653489102</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>105.912489752469</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.3503650376696</v>
       </c>
       <c r="T25" t="n">
-        <v>221.1625276078995</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2324370779328</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.6132898769322</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4034542515608</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1126311024745</v>
       </c>
       <c r="I28" t="n">
         <v>107.7092653489102</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>105.912489752469</v>
+        <v>98.78776196311796</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2324370779328</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4034542515608</v>
@@ -24889,19 +24889,19 @@
         <v>196.3503650376696</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>91.57620382651055</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2324370779328</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>8.859447864117953</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25078,16 +25078,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4034542515608</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>105.912489752469</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2324370779328</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>169.7743935049639</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>106.8113573755707</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.7636226125942</v>
+        <v>35.12229833544745</v>
       </c>
       <c r="H35" t="n">
         <v>303.2298416201212</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.7926353107742</v>
+        <v>128.372488744597</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>251.0625237156332</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1126311024745</v>
       </c>
       <c r="I37" t="n">
         <v>107.7092653489102</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>105.912489752469</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>105.6599373611835</v>
       </c>
       <c r="T37" t="n">
-        <v>221.1625276078995</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2324370779328</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.017089657853234</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,22 +25391,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>303.2298416201212</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>128.372488744597</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>207.603374078259</v>
       </c>
       <c r="U38" t="n">
-        <v>58.92720488297175</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>160.9428096201266</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25552,22 +25552,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4120123614478</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4034542515608</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>107.7092653489102</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.59472736368594</v>
       </c>
       <c r="S40" t="n">
         <v>196.3503650376696</v>
@@ -25603,10 +25603,10 @@
         <v>221.1625276078995</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2324370779328</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,22 +25628,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>67.238155942665</v>
+        <v>9.480790010304929</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>303.2298416201212</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>207.603374078259</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0625237156332</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>11.5628013787624</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>24.20054387731011</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25764,13 +25764,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>33.28425545889462</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>81.7465406205293</v>
       </c>
       <c r="D43" t="n">
-        <v>74.04755307790153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4034542515608</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>107.7092653489102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25834,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.3503650376696</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2324370779328</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>27.0158513559611</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>340.3298175296273</v>
       </c>
       <c r="H44" t="n">
         <v>303.2298416201212</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>128.372488744597</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>207.603374078259</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0625237156332</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25995,10 +25995,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>13.24043709535965</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8168035670116</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,7 +26007,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>72.52405701250441</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>142.3405115693284</v>
+        <v>100.8086369409509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1126311024745</v>
       </c>
       <c r="I46" t="n">
-        <v>107.7092653489102</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.3503650376696</v>
       </c>
       <c r="T46" t="n">
         <v>221.1625276078995</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2324370779328</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>874049.6141211262</v>
+        <v>874049.6141211253</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>577945.1326656264</v>
+        <v>577945.1326656265</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620728.9935499921</v>
+        <v>620728.993549992</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620728.9935499921</v>
+        <v>620728.993549992</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854719.4847542474</v>
+        <v>854719.4847542476</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854719.4847542477</v>
+        <v>854719.4847542476</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620728.9935499922</v>
+        <v>620728.993549992</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620728.9935499921</v>
+        <v>620728.993549992</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>577945.1326656265</v>
+        <v>577945.1326656264</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>577945.1326656266</v>
+        <v>577945.1326656265</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="E2" t="n">
         <v>446879.1728768687</v>
       </c>
       <c r="F2" t="n">
-        <v>446879.1728768687</v>
+        <v>446879.172876869</v>
       </c>
       <c r="G2" t="n">
         <v>471770.1964050956</v>
@@ -26332,28 +26332,28 @@
         <v>471770.1964050957</v>
       </c>
       <c r="I2" t="n">
-        <v>607902.4364964716</v>
+        <v>607902.4364964718</v>
       </c>
       <c r="J2" t="n">
         <v>607902.4364964718</v>
       </c>
       <c r="K2" t="n">
-        <v>607902.4364964718</v>
+        <v>607902.4364964715</v>
       </c>
       <c r="L2" t="n">
         <v>607902.4364964714</v>
       </c>
       <c r="M2" t="n">
-        <v>471770.1964050958</v>
+        <v>471770.1964050957</v>
       </c>
       <c r="N2" t="n">
-        <v>471770.1964050956</v>
+        <v>471770.1964050957</v>
       </c>
       <c r="O2" t="n">
         <v>446879.1728768689</v>
       </c>
       <c r="P2" t="n">
-        <v>446879.1728768688</v>
+        <v>446879.1728768687</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7.345776930378634e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>878892.1902294364</v>
+        <v>878892.1902294366</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18592.81845896694</v>
+        <v>18592.81845896685</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1530.680323544279</v>
+        <v>1530.680323544336</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419447.199162568</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="C4" t="n">
-        <v>419447.1991625678</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="D4" t="n">
-        <v>419447.199162568</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="E4" t="n">
-        <v>16066.4190466195</v>
+        <v>16212.96815908103</v>
       </c>
       <c r="F4" t="n">
-        <v>16066.41904661952</v>
+        <v>16212.96815908104</v>
       </c>
       <c r="G4" t="n">
-        <v>27478.14972168592</v>
+        <v>27731.4699185088</v>
       </c>
       <c r="H4" t="n">
-        <v>27478.14972168591</v>
+        <v>27731.4699185088</v>
       </c>
       <c r="I4" t="n">
-        <v>89890.38674177283</v>
+        <v>90727.65186454947</v>
       </c>
       <c r="J4" t="n">
-        <v>89890.38674177283</v>
+        <v>90727.65186454945</v>
       </c>
       <c r="K4" t="n">
-        <v>89890.38674177259</v>
+        <v>90727.65186454944</v>
       </c>
       <c r="L4" t="n">
-        <v>89890.38674177283</v>
+        <v>90727.65186454947</v>
       </c>
       <c r="M4" t="n">
-        <v>27478.14972168594</v>
+        <v>27731.4699185088</v>
       </c>
       <c r="N4" t="n">
-        <v>27478.14972168592</v>
+        <v>27731.4699185088</v>
       </c>
       <c r="O4" t="n">
-        <v>16066.41904661953</v>
+        <v>16212.96815908103</v>
       </c>
       <c r="P4" t="n">
-        <v>16066.41904661955</v>
+        <v>16212.96815908103</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.60000000014</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>54137.50699385071</v>
+        <v>54137.50699385074</v>
       </c>
       <c r="F5" t="n">
-        <v>54137.50699385071</v>
+        <v>54137.50699385074</v>
       </c>
       <c r="G5" t="n">
-        <v>58261.9332204052</v>
+        <v>58261.93322040521</v>
       </c>
       <c r="H5" t="n">
-        <v>58261.9332204052</v>
+        <v>58261.93322040521</v>
       </c>
       <c r="I5" t="n">
         <v>92834.25435535755</v>
@@ -26494,22 +26494,22 @@
         <v>92834.25435535755</v>
       </c>
       <c r="K5" t="n">
-        <v>92834.25435535741</v>
+        <v>92834.25435535755</v>
       </c>
       <c r="L5" t="n">
         <v>92834.25435535755</v>
       </c>
       <c r="M5" t="n">
-        <v>58261.93322040522</v>
+        <v>58261.93322040521</v>
       </c>
       <c r="N5" t="n">
-        <v>58261.93322040522</v>
+        <v>58261.93322040521</v>
       </c>
       <c r="O5" t="n">
-        <v>54137.50699385072</v>
+        <v>54137.50699385073</v>
       </c>
       <c r="P5" t="n">
-        <v>54137.50699385074</v>
+        <v>54137.50699385073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181864.3633431369</v>
+        <v>181163.7936161737</v>
       </c>
       <c r="C6" t="n">
-        <v>181864.363343136</v>
+        <v>181163.7936161737</v>
       </c>
       <c r="D6" t="n">
-        <v>181864.3633431374</v>
+        <v>181163.7936161736</v>
       </c>
       <c r="E6" t="n">
-        <v>-502216.9433930379</v>
+        <v>-502363.4925054996</v>
       </c>
       <c r="F6" t="n">
-        <v>376675.2468363986</v>
+        <v>376528.6977239372</v>
       </c>
       <c r="G6" t="n">
-        <v>367437.2950040376</v>
+        <v>367183.9748072148</v>
       </c>
       <c r="H6" t="n">
-        <v>386030.1134630046</v>
+        <v>385776.7932661817</v>
       </c>
       <c r="I6" t="n">
-        <v>273968.8117064521</v>
+        <v>273131.5465836756</v>
       </c>
       <c r="J6" t="n">
-        <v>425177.7953993414</v>
+        <v>424340.5302765648</v>
       </c>
       <c r="K6" t="n">
-        <v>425177.7953993417</v>
+        <v>424340.5302765645</v>
       </c>
       <c r="L6" t="n">
-        <v>425177.795399341</v>
+        <v>424340.5302765644</v>
       </c>
       <c r="M6" t="n">
-        <v>384499.4331394603</v>
+        <v>384246.1129426375</v>
       </c>
       <c r="N6" t="n">
-        <v>386030.1134630045</v>
+        <v>385776.7932661818</v>
       </c>
       <c r="O6" t="n">
-        <v>376675.2468363986</v>
+        <v>376528.6977239371</v>
       </c>
       <c r="P6" t="n">
-        <v>376675.2468363985</v>
+        <v>376528.697723937</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="F3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="G3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="H3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="I3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="J3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="K3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="L3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="M3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="N3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="O3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="P3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
     </row>
     <row r="4">
@@ -26790,16 +26790,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>574.7659811858163</v>
+        <v>574.7659811858166</v>
       </c>
       <c r="F4" t="n">
-        <v>574.7659811858163</v>
+        <v>574.7659811858166</v>
       </c>
       <c r="G4" t="n">
         <v>642.60193885941</v>
@@ -26814,22 +26814,22 @@
         <v>1211.225641736916</v>
       </c>
       <c r="K4" t="n">
-        <v>1211.225641736913</v>
+        <v>1211.225641736916</v>
       </c>
       <c r="L4" t="n">
         <v>1211.225641736916</v>
       </c>
       <c r="M4" t="n">
-        <v>642.6019388594101</v>
+        <v>642.60193885941</v>
       </c>
       <c r="N4" t="n">
-        <v>642.6019388594101</v>
+        <v>642.60193885941</v>
       </c>
       <c r="O4" t="n">
-        <v>574.7659811858164</v>
+        <v>574.7659811858165</v>
       </c>
       <c r="P4" t="n">
-        <v>574.7659811858166</v>
+        <v>574.7659811858165</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>880.3548320070223</v>
+        <v>880.3548320070224</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.408112413934336e-12</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>574.7659811858163</v>
+        <v>574.7659811858166</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>67.83595767359373</v>
+        <v>67.8359576735934</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.142278308310779</v>
+        <v>6.142278308311006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>574.7659811858163</v>
+        <v>574.7659811858166</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>67.83595767359373</v>
+        <v>67.8359576735934</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704036</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461479</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560468</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632062</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526409</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27752,7 +27752,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149423</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584567</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735104238</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169211</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771672</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -31768,7 +31768,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M11" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N11" t="n">
         <v>631.4931198476102</v>
@@ -31777,13 +31777,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P11" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q11" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R11" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S11" t="n">
         <v>80.64758084164835</v>
@@ -31841,13 +31841,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K12" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L12" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M12" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N12" t="n">
         <v>492.4920866338153</v>
@@ -31856,7 +31856,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P12" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q12" t="n">
         <v>241.7155380257772</v>
@@ -31868,7 +31868,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T12" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U12" t="n">
         <v>0.1245785139632579</v>
@@ -31911,10 +31911,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H13" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I13" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J13" t="n">
         <v>112.2380250576822</v>
@@ -31932,22 +31932,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O13" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P13" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q13" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R13" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S13" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T13" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U13" t="n">
         <v>0.08659227855806786</v>
@@ -32005,7 +32005,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M14" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N14" t="n">
         <v>631.4931198476102</v>
@@ -32014,13 +32014,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P14" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q14" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R14" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S14" t="n">
         <v>80.64758084164835</v>
@@ -32078,13 +32078,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K15" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L15" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M15" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N15" t="n">
         <v>492.4920866338153</v>
@@ -32093,7 +32093,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q15" t="n">
         <v>241.7155380257772</v>
@@ -32105,7 +32105,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T15" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U15" t="n">
         <v>0.1245785139632579</v>
@@ -32148,10 +32148,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H16" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I16" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J16" t="n">
         <v>112.2380250576822</v>
@@ -32169,22 +32169,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O16" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P16" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q16" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R16" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S16" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T16" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U16" t="n">
         <v>0.08659227855806786</v>
@@ -32242,7 +32242,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M17" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N17" t="n">
         <v>631.4931198476102</v>
@@ -32251,13 +32251,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P17" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q17" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R17" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S17" t="n">
         <v>80.64758084164835</v>
@@ -32315,13 +32315,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K18" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L18" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M18" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N18" t="n">
         <v>492.4920866338153</v>
@@ -32330,7 +32330,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P18" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q18" t="n">
         <v>241.7155380257772</v>
@@ -32342,7 +32342,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T18" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U18" t="n">
         <v>0.1245785139632579</v>
@@ -32385,10 +32385,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H19" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I19" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J19" t="n">
         <v>112.2380250576822</v>
@@ -32406,22 +32406,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O19" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P19" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q19" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R19" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S19" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T19" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U19" t="n">
         <v>0.08659227855806786</v>
@@ -32479,7 +32479,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M20" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N20" t="n">
         <v>631.4931198476102</v>
@@ -32488,13 +32488,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P20" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q20" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R20" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S20" t="n">
         <v>80.64758084164835</v>
@@ -32552,13 +32552,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K21" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L21" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M21" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N21" t="n">
         <v>492.4920866338153</v>
@@ -32567,7 +32567,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P21" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q21" t="n">
         <v>241.7155380257772</v>
@@ -32579,7 +32579,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T21" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U21" t="n">
         <v>0.1245785139632579</v>
@@ -32622,10 +32622,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H22" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I22" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J22" t="n">
         <v>112.2380250576822</v>
@@ -32643,22 +32643,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O22" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P22" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q22" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R22" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S22" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T22" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U22" t="n">
         <v>0.08659227855806786</v>
@@ -32716,7 +32716,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M23" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N23" t="n">
         <v>631.4931198476102</v>
@@ -32725,13 +32725,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P23" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q23" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R23" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S23" t="n">
         <v>80.64758084164835</v>
@@ -32789,13 +32789,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K24" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L24" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M24" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N24" t="n">
         <v>492.4920866338153</v>
@@ -32804,7 +32804,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P24" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q24" t="n">
         <v>241.7155380257772</v>
@@ -32816,7 +32816,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T24" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U24" t="n">
         <v>0.1245785139632579</v>
@@ -32859,10 +32859,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H25" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I25" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J25" t="n">
         <v>112.2380250576822</v>
@@ -32880,22 +32880,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O25" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P25" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q25" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R25" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S25" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T25" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U25" t="n">
         <v>0.08659227855806786</v>
@@ -32953,7 +32953,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M26" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N26" t="n">
         <v>631.4931198476102</v>
@@ -32962,13 +32962,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P26" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q26" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R26" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S26" t="n">
         <v>80.64758084164835</v>
@@ -33026,13 +33026,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K27" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L27" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M27" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N27" t="n">
         <v>492.4920866338153</v>
@@ -33041,7 +33041,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P27" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q27" t="n">
         <v>241.7155380257772</v>
@@ -33053,7 +33053,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T27" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U27" t="n">
         <v>0.1245785139632579</v>
@@ -33096,10 +33096,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H28" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I28" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J28" t="n">
         <v>112.2380250576822</v>
@@ -33117,22 +33117,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O28" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P28" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q28" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R28" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S28" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T28" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U28" t="n">
         <v>0.08659227855806786</v>
@@ -33190,7 +33190,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M29" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N29" t="n">
         <v>631.4931198476102</v>
@@ -33199,13 +33199,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P29" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q29" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R29" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S29" t="n">
         <v>80.64758084164835</v>
@@ -33263,13 +33263,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K30" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L30" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M30" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N30" t="n">
         <v>492.4920866338153</v>
@@ -33278,7 +33278,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P30" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q30" t="n">
         <v>241.7155380257772</v>
@@ -33290,7 +33290,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T30" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U30" t="n">
         <v>0.1245785139632579</v>
@@ -33333,10 +33333,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H31" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I31" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J31" t="n">
         <v>112.2380250576822</v>
@@ -33354,22 +33354,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O31" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P31" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q31" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R31" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S31" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T31" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U31" t="n">
         <v>0.08659227855806786</v>
@@ -33427,7 +33427,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M32" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N32" t="n">
         <v>631.4931198476102</v>
@@ -33436,13 +33436,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P32" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q32" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R32" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S32" t="n">
         <v>80.64758084164835</v>
@@ -33500,13 +33500,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K33" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L33" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M33" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N33" t="n">
         <v>492.4920866338153</v>
@@ -33515,7 +33515,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P33" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q33" t="n">
         <v>241.7155380257772</v>
@@ -33527,7 +33527,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T33" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U33" t="n">
         <v>0.1245785139632579</v>
@@ -33570,10 +33570,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H34" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I34" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J34" t="n">
         <v>112.2380250576822</v>
@@ -33591,22 +33591,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O34" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P34" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q34" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R34" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S34" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T34" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U34" t="n">
         <v>0.08659227855806786</v>
@@ -33664,7 +33664,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M35" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N35" t="n">
         <v>631.4931198476102</v>
@@ -33673,13 +33673,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P35" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q35" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R35" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S35" t="n">
         <v>80.64758084164835</v>
@@ -33737,13 +33737,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K36" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L36" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M36" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N36" t="n">
         <v>492.4920866338153</v>
@@ -33752,7 +33752,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P36" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q36" t="n">
         <v>241.7155380257772</v>
@@ -33764,7 +33764,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T36" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U36" t="n">
         <v>0.1245785139632579</v>
@@ -33807,10 +33807,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H37" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I37" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J37" t="n">
         <v>112.2380250576822</v>
@@ -33828,22 +33828,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O37" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P37" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q37" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R37" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S37" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T37" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U37" t="n">
         <v>0.08659227855806786</v>
@@ -33901,7 +33901,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M38" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N38" t="n">
         <v>631.4931198476102</v>
@@ -33910,13 +33910,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P38" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q38" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R38" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S38" t="n">
         <v>80.64758084164835</v>
@@ -33974,13 +33974,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K39" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L39" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M39" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N39" t="n">
         <v>492.4920866338153</v>
@@ -33989,7 +33989,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P39" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q39" t="n">
         <v>241.7155380257772</v>
@@ -34001,7 +34001,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T39" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U39" t="n">
         <v>0.1245785139632579</v>
@@ -34044,10 +34044,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H40" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I40" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J40" t="n">
         <v>112.2380250576822</v>
@@ -34065,22 +34065,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O40" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P40" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q40" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R40" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S40" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T40" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U40" t="n">
         <v>0.08659227855806786</v>
@@ -34138,7 +34138,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M41" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N41" t="n">
         <v>631.4931198476102</v>
@@ -34147,13 +34147,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P41" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q41" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R41" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S41" t="n">
         <v>80.64758084164835</v>
@@ -34211,13 +34211,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K42" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L42" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M42" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N42" t="n">
         <v>492.4920866338153</v>
@@ -34226,7 +34226,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P42" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q42" t="n">
         <v>241.7155380257772</v>
@@ -34238,7 +34238,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T42" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U42" t="n">
         <v>0.1245785139632579</v>
@@ -34281,10 +34281,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H43" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I43" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J43" t="n">
         <v>112.2380250576822</v>
@@ -34302,22 +34302,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O43" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P43" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q43" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R43" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S43" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T43" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U43" t="n">
         <v>0.08659227855806786</v>
@@ -34375,7 +34375,7 @@
         <v>558.4988749827063</v>
       </c>
       <c r="M44" t="n">
-        <v>621.437609630766</v>
+        <v>621.4376096307661</v>
       </c>
       <c r="N44" t="n">
         <v>631.4931198476102</v>
@@ -34384,13 +34384,13 @@
         <v>596.3010460354701</v>
       </c>
       <c r="P44" t="n">
-        <v>508.9291468789942</v>
+        <v>508.9291468789943</v>
       </c>
       <c r="Q44" t="n">
-        <v>382.184594431752</v>
+        <v>382.1845944317521</v>
       </c>
       <c r="R44" t="n">
-        <v>222.3139264967281</v>
+        <v>222.3139264967282</v>
       </c>
       <c r="S44" t="n">
         <v>80.64758084164835</v>
@@ -34448,13 +34448,13 @@
         <v>178.9030512855026</v>
       </c>
       <c r="K45" t="n">
-        <v>305.7738099056843</v>
+        <v>305.7738099056844</v>
       </c>
       <c r="L45" t="n">
-        <v>411.1506222500721</v>
+        <v>411.1506222500722</v>
       </c>
       <c r="M45" t="n">
-        <v>479.7933834438271</v>
+        <v>479.7933834438272</v>
       </c>
       <c r="N45" t="n">
         <v>492.4920866338153</v>
@@ -34463,7 +34463,7 @@
         <v>450.53404313099</v>
       </c>
       <c r="P45" t="n">
-        <v>361.5932893954881</v>
+        <v>361.5932893954882</v>
       </c>
       <c r="Q45" t="n">
         <v>241.7155380257772</v>
@@ -34475,7 +34475,7 @@
         <v>35.17266710895979</v>
       </c>
       <c r="T45" t="n">
-        <v>7.632510288815596</v>
+        <v>7.632510288815597</v>
       </c>
       <c r="U45" t="n">
         <v>0.1245785139632579</v>
@@ -34518,10 +34518,10 @@
         <v>1.587525106897909</v>
       </c>
       <c r="H46" t="n">
-        <v>14.11454140496505</v>
+        <v>14.11454140496506</v>
       </c>
       <c r="I46" t="n">
-        <v>47.74120957834804</v>
+        <v>47.74120957834805</v>
       </c>
       <c r="J46" t="n">
         <v>112.2380250576822</v>
@@ -34539,22 +34539,22 @@
         <v>242.9346374946593</v>
       </c>
       <c r="O46" t="n">
-        <v>224.3894578368063</v>
+        <v>224.3894578368064</v>
       </c>
       <c r="P46" t="n">
-        <v>192.0039456560888</v>
+        <v>192.0039456560889</v>
       </c>
       <c r="Q46" t="n">
         <v>132.9335796330604</v>
       </c>
       <c r="R46" t="n">
-        <v>71.3809016247005</v>
+        <v>71.38090162470051</v>
       </c>
       <c r="S46" t="n">
         <v>27.66623299930264</v>
       </c>
       <c r="T46" t="n">
-        <v>6.783061820381973</v>
+        <v>6.783061820381974</v>
       </c>
       <c r="U46" t="n">
         <v>0.08659227855806786</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -34978,7 +34978,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-6.820746282732849e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.365604906126556e-12</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>119.3320489328354</v>
       </c>
       <c r="K11" t="n">
-        <v>230.0988362390929</v>
+        <v>230.098836239093</v>
       </c>
       <c r="L11" t="n">
         <v>322.7324600127191</v>
       </c>
       <c r="M11" t="n">
-        <v>391.0913764034933</v>
+        <v>391.0913764034934</v>
       </c>
       <c r="N11" t="n">
         <v>402.0800562510192</v>
@@ -35428,10 +35428,10 @@
         <v>277.6961511237247</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.8789045573016</v>
+        <v>159.8789045573026</v>
       </c>
       <c r="R11" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>178.1564599592447</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K12" t="n">
-        <v>222.1600032081022</v>
+        <v>432.397607943904</v>
       </c>
       <c r="L12" t="n">
-        <v>272.5962424701979</v>
+        <v>272.596242470198</v>
       </c>
       <c r="M12" t="n">
-        <v>337.6593495218088</v>
+        <v>520.3409626256874</v>
       </c>
       <c r="N12" t="n">
-        <v>361.150374550482</v>
+        <v>361.1503745504821</v>
       </c>
       <c r="O12" t="n">
-        <v>574.7659811858163</v>
+        <v>307.9377986865456</v>
       </c>
       <c r="P12" t="n">
         <v>227.6188819811579</v>
       </c>
       <c r="Q12" t="n">
-        <v>101.7337639397556</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K13" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L13" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M13" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N13" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O13" t="n">
         <v>248.974585750846</v>
@@ -35586,7 +35586,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>119.3320489328354</v>
       </c>
       <c r="K14" t="n">
-        <v>230.0988362390929</v>
+        <v>230.098836239093</v>
       </c>
       <c r="L14" t="n">
         <v>322.7324600127191</v>
       </c>
       <c r="M14" t="n">
-        <v>391.0913764034933</v>
+        <v>391.0913764034934</v>
       </c>
       <c r="N14" t="n">
         <v>402.0800562510192</v>
@@ -35662,13 +35662,13 @@
         <v>366.2028346137834</v>
       </c>
       <c r="P14" t="n">
-        <v>277.6961511237239</v>
+        <v>277.6961511237247</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.8789045573025</v>
+        <v>159.8789045573026</v>
       </c>
       <c r="R14" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K15" t="n">
-        <v>432.3976079439039</v>
+        <v>167.9323709313254</v>
       </c>
       <c r="L15" t="n">
-        <v>272.5962424701979</v>
+        <v>272.596242470198</v>
       </c>
       <c r="M15" t="n">
         <v>337.6593495218088</v>
       </c>
       <c r="N15" t="n">
-        <v>361.150374550482</v>
+        <v>574.7659811858166</v>
       </c>
       <c r="O15" t="n">
-        <v>307.9377986865455</v>
+        <v>541.4690421676686</v>
       </c>
       <c r="P15" t="n">
-        <v>410.3004950850354</v>
+        <v>227.6188819811579</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.7337639397556</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K16" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L16" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M16" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N16" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O16" t="n">
         <v>248.974585750846</v>
@@ -35823,7 +35823,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>119.3320489328354</v>
       </c>
       <c r="K17" t="n">
-        <v>230.0988362390929</v>
+        <v>230.098836239093</v>
       </c>
       <c r="L17" t="n">
-        <v>322.7324600127191</v>
+        <v>339.8248814764854</v>
       </c>
       <c r="M17" t="n">
-        <v>391.0913764034933</v>
+        <v>642.60193885941</v>
       </c>
       <c r="N17" t="n">
         <v>402.0800562510192</v>
@@ -35899,13 +35899,13 @@
         <v>366.2028346137834</v>
       </c>
       <c r="P17" t="n">
-        <v>546.2991350434081</v>
+        <v>277.6961511237247</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.8789045573025</v>
+        <v>159.8789045573026</v>
       </c>
       <c r="R17" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K18" t="n">
-        <v>337.7310865000644</v>
+        <v>167.9323709313254</v>
       </c>
       <c r="L18" t="n">
-        <v>272.5962424701979</v>
+        <v>642.60193885941</v>
       </c>
       <c r="M18" t="n">
         <v>337.6593495218088</v>
       </c>
       <c r="N18" t="n">
-        <v>361.150374550482</v>
+        <v>642.60193885941</v>
       </c>
       <c r="O18" t="n">
-        <v>307.9377986865455</v>
+        <v>372.2303720245459</v>
       </c>
       <c r="P18" t="n">
-        <v>546.081650621095</v>
+        <v>227.6188819811579</v>
       </c>
       <c r="Q18" t="n">
-        <v>311.8110516756047</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R18" t="n">
-        <v>17.41106209161548</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K19" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L19" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M19" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N19" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O19" t="n">
         <v>248.974585750846</v>
@@ -36060,7 +36060,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>119.3320489328354</v>
       </c>
       <c r="K20" t="n">
-        <v>286.3868294988712</v>
+        <v>498.7018201587758</v>
       </c>
       <c r="L20" t="n">
         <v>322.7324600127191</v>
       </c>
       <c r="M20" t="n">
-        <v>391.0913764034933</v>
+        <v>391.0913764034934</v>
       </c>
       <c r="N20" t="n">
         <v>402.0800562510192</v>
@@ -36139,10 +36139,10 @@
         <v>277.6961511237247</v>
       </c>
       <c r="Q20" t="n">
-        <v>372.1938952172072</v>
+        <v>159.8789045573026</v>
       </c>
       <c r="R20" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K21" t="n">
-        <v>432.3976079439039</v>
+        <v>167.9323709313254</v>
       </c>
       <c r="L21" t="n">
-        <v>272.5962424701979</v>
+        <v>272.596242470198</v>
       </c>
       <c r="M21" t="n">
-        <v>337.6593495218088</v>
+        <v>642.60193885941</v>
       </c>
       <c r="N21" t="n">
-        <v>361.150374550482</v>
+        <v>642.60193885941</v>
       </c>
       <c r="O21" t="n">
-        <v>307.9377986865455</v>
+        <v>437.2934790761568</v>
       </c>
       <c r="P21" t="n">
-        <v>546.081650621095</v>
+        <v>227.6188819811579</v>
       </c>
       <c r="Q21" t="n">
-        <v>234.5555923233805</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K22" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L22" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M22" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N22" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O22" t="n">
         <v>248.974585750846</v>
@@ -36297,7 +36297,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>740.3936745631695</v>
       </c>
       <c r="M23" t="n">
-        <v>840.6049098963258</v>
+        <v>840.6049098963259</v>
       </c>
       <c r="N23" t="n">
         <v>839.4269806630034</v>
@@ -36373,13 +36373,13 @@
         <v>747.0030158765287</v>
       </c>
       <c r="P23" t="n">
-        <v>406.9403793665161</v>
+        <v>341.2239594935341</v>
       </c>
       <c r="Q23" t="n">
-        <v>372.1938952172072</v>
+        <v>372.1938952172073</v>
       </c>
       <c r="R23" t="n">
-        <v>6.728388682596005</v>
+        <v>72.44480855557848</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K24" t="n">
         <v>167.9323709313254</v>
       </c>
       <c r="L24" t="n">
-        <v>643.436587773657</v>
+        <v>594.4837572296092</v>
       </c>
       <c r="M24" t="n">
-        <v>682.5688382544904</v>
+        <v>337.6593495218088</v>
       </c>
       <c r="N24" t="n">
-        <v>361.150374550482</v>
+        <v>361.1503745504821</v>
       </c>
       <c r="O24" t="n">
-        <v>307.9377986865455</v>
+        <v>701.8001179632752</v>
       </c>
       <c r="P24" t="n">
         <v>227.6188819811579</v>
       </c>
       <c r="Q24" t="n">
-        <v>101.7337639397556</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K25" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L25" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M25" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N25" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O25" t="n">
         <v>248.974585750846</v>
@@ -36534,7 +36534,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>288.4286641049092</v>
+        <v>119.3320489328354</v>
       </c>
       <c r="K26" t="n">
         <v>554.2442488102577</v>
       </c>
       <c r="L26" t="n">
-        <v>740.3936745631695</v>
+        <v>716.9358098065519</v>
       </c>
       <c r="M26" t="n">
-        <v>840.6049098963258</v>
+        <v>840.6049098963259</v>
       </c>
       <c r="N26" t="n">
         <v>839.4269806630034</v>
@@ -36613,10 +36613,10 @@
         <v>599.4948592952073</v>
       </c>
       <c r="Q26" t="n">
-        <v>179.639415288516</v>
+        <v>372.1938952172073</v>
       </c>
       <c r="R26" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>178.1564599592447</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K27" t="n">
         <v>167.9323709313254</v>
       </c>
       <c r="L27" t="n">
-        <v>272.5962424701979</v>
+        <v>272.596242470198</v>
       </c>
       <c r="M27" t="n">
-        <v>337.6593495218088</v>
+        <v>803.3644132718088</v>
       </c>
       <c r="N27" t="n">
-        <v>840.4927488940355</v>
+        <v>361.1503745504821</v>
       </c>
       <c r="O27" t="n">
-        <v>307.9377986865455</v>
+        <v>557.9825689726862</v>
       </c>
       <c r="P27" t="n">
-        <v>337.9353063333365</v>
+        <v>227.6188819811579</v>
       </c>
       <c r="Q27" t="n">
-        <v>101.7337639397556</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K28" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L28" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M28" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N28" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O28" t="n">
         <v>248.974585750846</v>
@@ -36771,7 +36771,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>740.3936745631695</v>
       </c>
       <c r="M29" t="n">
-        <v>840.6049098963258</v>
+        <v>648.0504299676345</v>
       </c>
       <c r="N29" t="n">
-        <v>581.1560808613212</v>
+        <v>839.4269806630034</v>
       </c>
       <c r="O29" t="n">
         <v>747.0030158765287</v>
@@ -36850,10 +36850,10 @@
         <v>599.4948592952073</v>
       </c>
       <c r="Q29" t="n">
-        <v>372.1938952172072</v>
+        <v>372.1938952172073</v>
       </c>
       <c r="R29" t="n">
-        <v>72.44480855557845</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K30" t="n">
         <v>167.9323709313254</v>
       </c>
       <c r="L30" t="n">
-        <v>272.5962424701979</v>
+        <v>272.596242470198</v>
       </c>
       <c r="M30" t="n">
-        <v>337.6593495218088</v>
+        <v>803.3644132718088</v>
       </c>
       <c r="N30" t="n">
-        <v>840.4927488940355</v>
+        <v>361.1503745504821</v>
       </c>
       <c r="O30" t="n">
-        <v>307.9377986865455</v>
+        <v>347.9052812368375</v>
       </c>
       <c r="P30" t="n">
-        <v>446.6152795821297</v>
+        <v>227.6188819811579</v>
       </c>
       <c r="Q30" t="n">
-        <v>101.7337639397556</v>
+        <v>311.8110516756047</v>
       </c>
       <c r="R30" t="n">
-        <v>17.41106209161548</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K31" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L31" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M31" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N31" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O31" t="n">
         <v>248.974585750846</v>
@@ -37008,7 +37008,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>740.3936745631695</v>
       </c>
       <c r="M32" t="n">
-        <v>840.6049098963258</v>
+        <v>840.6049098963259</v>
       </c>
       <c r="N32" t="n">
-        <v>839.4269806630034</v>
+        <v>581.15608086133</v>
       </c>
       <c r="O32" t="n">
         <v>747.0030158765287</v>
@@ -37087,10 +37087,10 @@
         <v>599.4948592952073</v>
       </c>
       <c r="Q32" t="n">
-        <v>179.639415288516</v>
+        <v>372.1938952172073</v>
       </c>
       <c r="R32" t="n">
-        <v>6.728388682596005</v>
+        <v>72.44480855557848</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K33" t="n">
-        <v>432.3976079439039</v>
+        <v>167.9323709313254</v>
       </c>
       <c r="L33" t="n">
-        <v>272.5962424701979</v>
+        <v>272.596242470198</v>
       </c>
       <c r="M33" t="n">
-        <v>337.6593495218088</v>
+        <v>574.066809214396</v>
       </c>
       <c r="N33" t="n">
-        <v>361.150374550482</v>
+        <v>840.4927488940356</v>
       </c>
       <c r="O33" t="n">
-        <v>440.7596270701708</v>
+        <v>307.9377986865456</v>
       </c>
       <c r="P33" t="n">
-        <v>546.081650621095</v>
+        <v>227.6188819811579</v>
       </c>
       <c r="Q33" t="n">
-        <v>101.7337639397556</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K34" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L34" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M34" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N34" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O34" t="n">
         <v>248.974585750846</v>
@@ -37245,7 +37245,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>119.3320489328354</v>
       </c>
       <c r="K35" t="n">
-        <v>230.0988362390929</v>
+        <v>230.098836239093</v>
       </c>
       <c r="L35" t="n">
-        <v>322.7324600127191</v>
+        <v>339.8248814764854</v>
       </c>
       <c r="M35" t="n">
-        <v>391.0913764034933</v>
+        <v>642.60193885941</v>
       </c>
       <c r="N35" t="n">
         <v>402.0800562510192</v>
@@ -37321,13 +37321,13 @@
         <v>366.2028346137834</v>
       </c>
       <c r="P35" t="n">
-        <v>546.2991350434086</v>
+        <v>277.6961511237247</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.8789045573025</v>
+        <v>159.8789045573026</v>
       </c>
       <c r="R35" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>178.1564599592447</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K36" t="n">
-        <v>432.3976079439039</v>
+        <v>167.9323709313254</v>
       </c>
       <c r="L36" t="n">
-        <v>272.5962424701979</v>
+        <v>642.60193885941</v>
       </c>
       <c r="M36" t="n">
-        <v>452.7756234691134</v>
+        <v>337.6593495218088</v>
       </c>
       <c r="N36" t="n">
-        <v>361.150374550482</v>
+        <v>361.1503745504821</v>
       </c>
       <c r="O36" t="n">
-        <v>307.9377986865455</v>
+        <v>443.6046485976251</v>
       </c>
       <c r="P36" t="n">
         <v>227.6188819811579</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K37" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L37" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M37" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N37" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O37" t="n">
         <v>248.974585750846</v>
@@ -37482,7 +37482,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>119.3320489328354</v>
+        <v>288.4286641049092</v>
       </c>
       <c r="K38" t="n">
-        <v>230.0988362390929</v>
+        <v>230.098836239093</v>
       </c>
       <c r="L38" t="n">
         <v>322.7324600127191</v>
       </c>
       <c r="M38" t="n">
-        <v>447.3793696632721</v>
+        <v>391.0913764034934</v>
       </c>
       <c r="N38" t="n">
-        <v>402.0800562510192</v>
+        <v>501.5864249986283</v>
       </c>
       <c r="O38" t="n">
         <v>366.2028346137834</v>
@@ -37561,10 +37561,10 @@
         <v>277.6961511237247</v>
       </c>
       <c r="Q38" t="n">
-        <v>372.1938952172072</v>
+        <v>159.8789045573026</v>
       </c>
       <c r="R38" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K39" t="n">
-        <v>432.3976079439039</v>
+        <v>167.9323709313254</v>
       </c>
       <c r="L39" t="n">
-        <v>272.5962424701979</v>
+        <v>642.60193885941</v>
       </c>
       <c r="M39" t="n">
-        <v>642.6019388594101</v>
+        <v>348.7393469958726</v>
       </c>
       <c r="N39" t="n">
-        <v>361.150374550482</v>
+        <v>361.1503745504821</v>
       </c>
       <c r="O39" t="n">
-        <v>454.2798063725063</v>
+        <v>642.60193885941</v>
       </c>
       <c r="P39" t="n">
         <v>227.6188819811579</v>
       </c>
       <c r="Q39" t="n">
-        <v>101.7337639397556</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K40" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L40" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M40" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N40" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O40" t="n">
         <v>248.974585750846</v>
@@ -37719,7 +37719,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>119.3320489328354</v>
       </c>
       <c r="K41" t="n">
-        <v>230.0988362390929</v>
+        <v>230.098836239093</v>
       </c>
       <c r="L41" t="n">
         <v>322.7324600127191</v>
       </c>
       <c r="M41" t="n">
-        <v>391.0913764034933</v>
+        <v>391.0913764034934</v>
       </c>
       <c r="N41" t="n">
         <v>402.0800562510192</v>
@@ -37798,10 +37798,10 @@
         <v>277.6961511237247</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.8789045573025</v>
+        <v>159.8789045573026</v>
       </c>
       <c r="R41" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682595416</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K42" t="n">
-        <v>432.3976079439039</v>
+        <v>167.9323709313254</v>
       </c>
       <c r="L42" t="n">
-        <v>272.5962424701979</v>
+        <v>272.596242470198</v>
       </c>
       <c r="M42" t="n">
         <v>337.6593495218088</v>
       </c>
       <c r="N42" t="n">
-        <v>361.150374550482</v>
+        <v>361.1503745504821</v>
       </c>
       <c r="O42" t="n">
-        <v>307.9377986865455</v>
+        <v>436.6218801630652</v>
       </c>
       <c r="P42" t="n">
-        <v>410.3004950850358</v>
+        <v>546.0816506210952</v>
       </c>
       <c r="Q42" t="n">
-        <v>101.7337639397556</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K43" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L43" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M43" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N43" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O43" t="n">
         <v>248.974585750846</v>
@@ -37956,7 +37956,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>119.3320489328354</v>
       </c>
       <c r="K44" t="n">
-        <v>230.0988362390929</v>
+        <v>230.098836239093</v>
       </c>
       <c r="L44" t="n">
         <v>322.7324600127191</v>
       </c>
       <c r="M44" t="n">
-        <v>391.0913764034933</v>
+        <v>391.0913764034934</v>
       </c>
       <c r="N44" t="n">
         <v>402.0800562510192</v>
@@ -38035,10 +38035,10 @@
         <v>277.6961511237247</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.8789045573025</v>
+        <v>159.8789045573026</v>
       </c>
       <c r="R44" t="n">
-        <v>6.728388682596005</v>
+        <v>6.728388682596034</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.06542461883586</v>
+        <v>52.06542461883589</v>
       </c>
       <c r="K45" t="n">
-        <v>167.9323709313254</v>
+        <v>296.6164524078449</v>
       </c>
       <c r="L45" t="n">
-        <v>272.5962424701979</v>
+        <v>272.596242470198</v>
       </c>
       <c r="M45" t="n">
         <v>337.6593495218088</v>
       </c>
       <c r="N45" t="n">
-        <v>574.7659811858166</v>
+        <v>361.1503745504821</v>
       </c>
       <c r="O45" t="n">
-        <v>541.4690421676686</v>
+        <v>307.9377986865456</v>
       </c>
       <c r="P45" t="n">
-        <v>227.6188819811579</v>
+        <v>546.0816506210952</v>
       </c>
       <c r="Q45" t="n">
-        <v>101.7337639397556</v>
+        <v>101.7337639397557</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.87884494100938</v>
+        <v>18.87884494100939</v>
       </c>
       <c r="K46" t="n">
-        <v>162.1720615028014</v>
+        <v>162.1720615028015</v>
       </c>
       <c r="L46" t="n">
-        <v>263.6117125167562</v>
+        <v>263.6117125167563</v>
       </c>
       <c r="M46" t="n">
         <v>288.435653491301</v>
       </c>
       <c r="N46" t="n">
-        <v>287.0668098738878</v>
+        <v>287.0668098738879</v>
       </c>
       <c r="O46" t="n">
         <v>248.974585750846</v>
@@ -38193,7 +38193,7 @@
         <v>189.2825049209823</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.77153638136598</v>
+        <v>46.771536381366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
